--- a/Projet/Calcul dB.xlsx
+++ b/Projet/Calcul dB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85e7673ddcb14ddb/Documents/PlatformIO/Projects/Reconnaissance-Vocale/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5547991-004F-4A95-8497-4855271336BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{C5547991-004F-4A95-8497-4855271336BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB1B9D13-6E61-4020-B5A4-634165AFBF4C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{922D7660-369A-4C6C-BD8E-AD8A21C21B19}"/>
   </bookViews>
@@ -35,12 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>V</t>
   </si>
   <si>
     <t>dB</t>
+  </si>
+  <si>
+    <t>Valeurs 1</t>
+  </si>
+  <si>
+    <t>Valeurs 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somme 1 et 2 </t>
+  </si>
+  <si>
+    <t>1 carre</t>
+  </si>
+  <si>
+    <t>2 carre</t>
+  </si>
+  <si>
+    <t>Somme :</t>
+  </si>
+  <si>
+    <t>Correlation normative :</t>
+  </si>
+  <si>
+    <t>Valeurs 3</t>
   </si>
 </sst>
 </file>
@@ -468,7 +492,740 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$K$2:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>7088.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4620.0200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1432.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>724.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>218.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>154.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>161.69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>114.24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>137.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>126.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>126.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>137.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>114.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45.31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>161.69</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>154.59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>153.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>86.87</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66.58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>94.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>218.14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>176.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.05</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>201.53</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>563.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>724.93</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1432.46</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4620.0200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7D9-4FEB-BB9E-52BA98B08C96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$L$2:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8365.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1693.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>745.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.62</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71.72</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>104.96</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.28</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>131.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>148.09</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>107.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>178.57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.02</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>198.53</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.78</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>405.17</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>745.69</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1693.71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7D9-4FEB-BB9E-52BA98B08C96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1018560687"/>
+        <c:axId val="1018567343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1018560687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018567343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1018567343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018560687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1005,6 +1762,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1057,6 +2317,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>283882</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>567765</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>11953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A256E1BE-3D9C-C025-78AA-4CEEA064E80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1362,68 +2658,1581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947A4A9D-30F0-4C7B-B54A-FCFE21B31228}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>5178.2</v>
+      </c>
+      <c r="K2">
+        <v>7088.52</v>
+      </c>
+      <c r="L2">
+        <v>8365.16</v>
+      </c>
+      <c r="M2">
+        <f>K2+L2</f>
+        <v>15453.68</v>
+      </c>
+      <c r="N2">
+        <f>K2^2</f>
+        <v>50247115.790400006</v>
+      </c>
+      <c r="O2">
+        <f>L2^2</f>
+        <v>69975901.825599998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>320</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>1334.54</v>
+      </c>
+      <c r="K3">
+        <v>4620.0200000000004</v>
+      </c>
+      <c r="L3">
+        <v>5316</v>
+      </c>
+      <c r="M3">
+        <f>K3+L3</f>
+        <v>9936.02</v>
+      </c>
+      <c r="N3">
+        <f>K3^2</f>
+        <v>21344584.800400004</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O65" si="0">L3^2</f>
+        <v>28259856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>450</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>1240.48</v>
+      </c>
+      <c r="K4">
+        <v>1432.46</v>
+      </c>
+      <c r="L4">
+        <v>1693.71</v>
+      </c>
+      <c r="M4">
+        <f>K4+L4</f>
+        <v>3126.17</v>
+      </c>
+      <c r="N4">
+        <f>K4^2</f>
+        <v>2051941.6516000002</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2868653.5641000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>600</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>875.73</v>
+      </c>
+      <c r="K5">
+        <v>724.93</v>
+      </c>
+      <c r="L5">
+        <v>745.69</v>
+      </c>
+      <c r="M5">
+        <f>K5+L5</f>
+        <v>1470.62</v>
+      </c>
+      <c r="N5">
+        <f>K5^2</f>
+        <v>525523.50489999994</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>556053.57610000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>800</v>
       </c>
       <c r="B6">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>358.79</v>
+      </c>
+      <c r="K6">
+        <v>563.69000000000005</v>
+      </c>
+      <c r="L6">
+        <v>405.17</v>
+      </c>
+      <c r="M6">
+        <f>K6+L6</f>
+        <v>968.86000000000013</v>
+      </c>
+      <c r="N6">
+        <f>K6^2</f>
+        <v>317746.41610000009</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>164162.72890000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1023</v>
       </c>
       <c r="B7">
         <v>90</v>
+      </c>
+      <c r="J7">
+        <v>123.97</v>
+      </c>
+      <c r="K7">
+        <v>201.53</v>
+      </c>
+      <c r="L7">
+        <v>99.78</v>
+      </c>
+      <c r="M7">
+        <f>K7+L7</f>
+        <v>301.31</v>
+      </c>
+      <c r="N7">
+        <f>K7^2</f>
+        <v>40614.340900000003</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>9956.0483999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>201.42</v>
+      </c>
+      <c r="K8">
+        <v>18.66</v>
+      </c>
+      <c r="L8">
+        <v>198.53</v>
+      </c>
+      <c r="M8">
+        <f>K8+L8</f>
+        <v>217.19</v>
+      </c>
+      <c r="N8">
+        <f>K8^2</f>
+        <v>348.19560000000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>39414.160900000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>139.15</v>
+      </c>
+      <c r="K9">
+        <v>40.43</v>
+      </c>
+      <c r="L9">
+        <v>28.02</v>
+      </c>
+      <c r="M9">
+        <f>K9+L9</f>
+        <v>68.45</v>
+      </c>
+      <c r="N9">
+        <f>K9^2</f>
+        <v>1634.5849000000001</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>785.12040000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>138.85</v>
+      </c>
+      <c r="K10">
+        <v>50.05</v>
+      </c>
+      <c r="L10">
+        <v>178.57</v>
+      </c>
+      <c r="M10">
+        <f>K10+L10</f>
+        <v>228.62</v>
+      </c>
+      <c r="N10">
+        <f>K10^2</f>
+        <v>2505.0024999999996</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>31887.244899999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>266.58999999999997</v>
+      </c>
+      <c r="K11">
+        <v>176.8</v>
+      </c>
+      <c r="L11">
+        <v>107.13</v>
+      </c>
+      <c r="M11">
+        <f>K11+L11</f>
+        <v>283.93</v>
+      </c>
+      <c r="N11">
+        <f>K11^2</f>
+        <v>31258.240000000005</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>11476.836899999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>239.16</v>
+      </c>
+      <c r="K12">
+        <v>218.14</v>
+      </c>
+      <c r="L12">
+        <v>90.98</v>
+      </c>
+      <c r="M12">
+        <f>K12+L12</f>
+        <v>309.12</v>
+      </c>
+      <c r="N12">
+        <f>K12^2</f>
+        <v>47585.059599999993</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>8277.3604000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="K13">
+        <v>178.7</v>
+      </c>
+      <c r="L13">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="M13">
+        <f>K13+L13</f>
+        <v>198.45999999999998</v>
+      </c>
+      <c r="N13">
+        <f>K13^2</f>
+        <v>31933.689999999995</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>390.45760000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>87.91</v>
+      </c>
+      <c r="K14">
+        <v>94.23</v>
+      </c>
+      <c r="L14">
+        <v>33.1</v>
+      </c>
+      <c r="M14">
+        <f>K14+L14</f>
+        <v>127.33000000000001</v>
+      </c>
+      <c r="N14">
+        <f>K14^2</f>
+        <v>8879.2929000000004</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1095.6100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>95.84</v>
+      </c>
+      <c r="K15">
+        <v>66.58</v>
+      </c>
+      <c r="L15">
+        <v>82.8</v>
+      </c>
+      <c r="M15">
+        <f>K15+L15</f>
+        <v>149.38</v>
+      </c>
+      <c r="N15">
+        <f>K15^2</f>
+        <v>4432.8963999999996</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>6855.8399999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>109.27</v>
+      </c>
+      <c r="K16">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="L16">
+        <v>148.09</v>
+      </c>
+      <c r="M16">
+        <f>K16+L16</f>
+        <v>186.22</v>
+      </c>
+      <c r="N16">
+        <f>K16^2</f>
+        <v>1453.8969000000002</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>21930.648100000002</v>
+      </c>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>256.73</v>
+      </c>
+      <c r="K17">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="L17">
+        <v>131.6</v>
+      </c>
+      <c r="M17">
+        <f>K17+L17</f>
+        <v>166.51</v>
+      </c>
+      <c r="N17">
+        <f>K17^2</f>
+        <v>1218.7080999999998</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>17318.559999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>149.55000000000001</v>
+      </c>
+      <c r="K18">
+        <v>56.52</v>
+      </c>
+      <c r="L18">
+        <v>24.73</v>
+      </c>
+      <c r="M18">
+        <f>K18+L18</f>
+        <v>81.25</v>
+      </c>
+      <c r="N18">
+        <f>K18^2</f>
+        <v>3194.5104000000006</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>611.5729</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>59.9</v>
+      </c>
+      <c r="K19">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="L19">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M19">
+        <f>K19+L19</f>
+        <v>146.56</v>
+      </c>
+      <c r="N19">
+        <f>K19^2</f>
+        <v>6554.5215999999991</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>4303.3599999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>49.17</v>
+      </c>
+      <c r="K20">
+        <v>86.87</v>
+      </c>
+      <c r="L20">
+        <v>69.28</v>
+      </c>
+      <c r="M20">
+        <f>K20+L20</f>
+        <v>156.15</v>
+      </c>
+      <c r="N20">
+        <f>K20^2</f>
+        <v>7546.3969000000006</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>4799.7183999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>47.03</v>
+      </c>
+      <c r="K21">
+        <v>153.97999999999999</v>
+      </c>
+      <c r="L21">
+        <v>76.25</v>
+      </c>
+      <c r="M21">
+        <f>K21+L21</f>
+        <v>230.23</v>
+      </c>
+      <c r="N21">
+        <f>K21^2</f>
+        <v>23709.840399999997</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>5814.0625</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>24.56</v>
+      </c>
+      <c r="K22">
+        <v>154.59</v>
+      </c>
+      <c r="L22">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="M22">
+        <f>K22+L22</f>
+        <v>195.36</v>
+      </c>
+      <c r="N22">
+        <f>K22^2</f>
+        <v>23898.0681</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1662.1929000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="K23">
+        <v>161.69</v>
+      </c>
+      <c r="L23">
+        <v>40.92</v>
+      </c>
+      <c r="M23">
+        <f>K23+L23</f>
+        <v>202.61</v>
+      </c>
+      <c r="N23">
+        <f>K23^2</f>
+        <v>26143.6561</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1674.4464</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>55.97</v>
+      </c>
+      <c r="K24">
+        <v>45.31</v>
+      </c>
+      <c r="L24">
+        <v>93.04</v>
+      </c>
+      <c r="M24">
+        <f>K24+L24</f>
+        <v>138.35000000000002</v>
+      </c>
+      <c r="N24">
+        <f>K24^2</f>
+        <v>2052.9961000000003</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>8656.4416000000019</v>
+      </c>
+    </row>
+    <row r="25" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>38.83</v>
+      </c>
+      <c r="K25">
+        <v>50.49</v>
+      </c>
+      <c r="L25">
+        <v>104.96</v>
+      </c>
+      <c r="M25">
+        <f>K25+L25</f>
+        <v>155.44999999999999</v>
+      </c>
+      <c r="N25">
+        <f>K25^2</f>
+        <v>2549.2401</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>11016.601599999998</v>
+      </c>
+    </row>
+    <row r="26" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>97.42</v>
+      </c>
+      <c r="K26">
+        <v>61.33</v>
+      </c>
+      <c r="L26">
+        <v>71.72</v>
+      </c>
+      <c r="M26">
+        <f>K26+L26</f>
+        <v>133.05000000000001</v>
+      </c>
+      <c r="N26">
+        <f>K26^2</f>
+        <v>3761.3688999999999</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>5143.7583999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>78.36</v>
+      </c>
+      <c r="K27">
+        <v>50.48</v>
+      </c>
+      <c r="L27">
+        <v>56.42</v>
+      </c>
+      <c r="M27">
+        <f>K27+L27</f>
+        <v>106.9</v>
+      </c>
+      <c r="N27">
+        <f>K27^2</f>
+        <v>2548.2303999999995</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>3183.2164000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>62.94</v>
+      </c>
+      <c r="K28">
+        <v>59.06</v>
+      </c>
+      <c r="L28">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="M28">
+        <f>K28+L28</f>
+        <v>77.41</v>
+      </c>
+      <c r="N28">
+        <f>K28^2</f>
+        <v>3488.0836000000004</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>336.72250000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>28.98</v>
+      </c>
+      <c r="K29">
+        <v>92.04</v>
+      </c>
+      <c r="L29">
+        <v>38.6</v>
+      </c>
+      <c r="M29">
+        <f>K29+L29</f>
+        <v>130.64000000000001</v>
+      </c>
+      <c r="N29">
+        <f>K29^2</f>
+        <v>8471.361600000002</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1489.96</v>
+      </c>
+    </row>
+    <row r="30" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>28.75</v>
+      </c>
+      <c r="K30">
+        <v>31.73</v>
+      </c>
+      <c r="L30">
+        <v>67.33</v>
+      </c>
+      <c r="M30">
+        <f>K30+L30</f>
+        <v>99.06</v>
+      </c>
+      <c r="N30">
+        <f>K30^2</f>
+        <v>1006.7929</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>4533.3288999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>27.86</v>
+      </c>
+      <c r="K31">
+        <v>114.24</v>
+      </c>
+      <c r="L31">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="M31">
+        <f>K31+L31</f>
+        <v>133.54999999999998</v>
+      </c>
+      <c r="N31">
+        <f>K31^2</f>
+        <v>13050.777599999999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>372.87609999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>28.96</v>
+      </c>
+      <c r="K32">
+        <v>137.84</v>
+      </c>
+      <c r="L32">
+        <v>62.62</v>
+      </c>
+      <c r="M32">
+        <f>K32+L32</f>
+        <v>200.46</v>
+      </c>
+      <c r="N32">
+        <f>K32^2</f>
+        <v>18999.865600000001</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>3921.2643999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>21.3</v>
+      </c>
+      <c r="K33">
+        <v>126.26</v>
+      </c>
+      <c r="L33">
+        <v>48.79</v>
+      </c>
+      <c r="M33">
+        <f>K33+L33</f>
+        <v>175.05</v>
+      </c>
+      <c r="N33">
+        <f>K33^2</f>
+        <v>15941.587600000001</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>2380.4641000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>6.8</v>
+      </c>
+      <c r="K34">
+        <v>38.44</v>
+      </c>
+      <c r="L34">
+        <v>71.41</v>
+      </c>
+      <c r="M34">
+        <f>K34+L34</f>
+        <v>109.85</v>
+      </c>
+      <c r="N34">
+        <f>K34^2</f>
+        <v>1477.6335999999999</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>5099.3880999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <v>21.3</v>
+      </c>
+      <c r="K35">
+        <v>126.26</v>
+      </c>
+      <c r="L35">
+        <v>48.79</v>
+      </c>
+      <c r="M35">
+        <f>K35+L35</f>
+        <v>175.05</v>
+      </c>
+      <c r="N35">
+        <f>K35^2</f>
+        <v>15941.587600000001</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>2380.4641000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J36">
+        <v>28.96</v>
+      </c>
+      <c r="K36">
+        <v>137.84</v>
+      </c>
+      <c r="L36">
+        <v>62.62</v>
+      </c>
+      <c r="M36">
+        <f>K36+L36</f>
+        <v>200.46</v>
+      </c>
+      <c r="N36">
+        <f>K36^2</f>
+        <v>18999.865600000001</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>3921.2643999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J37">
+        <v>27.86</v>
+      </c>
+      <c r="K37">
+        <v>114.24</v>
+      </c>
+      <c r="L37">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="M37">
+        <f>K37+L37</f>
+        <v>133.54999999999998</v>
+      </c>
+      <c r="N37">
+        <f>K37^2</f>
+        <v>13050.777599999999</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>372.87609999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>28.75</v>
+      </c>
+      <c r="K38">
+        <v>31.73</v>
+      </c>
+      <c r="L38">
+        <v>67.33</v>
+      </c>
+      <c r="M38">
+        <f>K38+L38</f>
+        <v>99.06</v>
+      </c>
+      <c r="N38">
+        <f>K38^2</f>
+        <v>1006.7929</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>4533.3288999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>28.98</v>
+      </c>
+      <c r="K39">
+        <v>92.04</v>
+      </c>
+      <c r="L39">
+        <v>38.6</v>
+      </c>
+      <c r="M39">
+        <f>K39+L39</f>
+        <v>130.64000000000001</v>
+      </c>
+      <c r="N39">
+        <f>K39^2</f>
+        <v>8471.361600000002</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>1489.96</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>62.94</v>
+      </c>
+      <c r="K40">
+        <v>59.06</v>
+      </c>
+      <c r="L40">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="M40">
+        <f>K40+L40</f>
+        <v>77.41</v>
+      </c>
+      <c r="N40">
+        <f>K40^2</f>
+        <v>3488.0836000000004</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>336.72250000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>78.36</v>
+      </c>
+      <c r="K41">
+        <v>50.48</v>
+      </c>
+      <c r="L41">
+        <v>56.42</v>
+      </c>
+      <c r="M41">
+        <f>K41+L41</f>
+        <v>106.9</v>
+      </c>
+      <c r="N41">
+        <f>K41^2</f>
+        <v>2548.2303999999995</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>3183.2164000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>97.42</v>
+      </c>
+      <c r="K42">
+        <v>61.33</v>
+      </c>
+      <c r="L42">
+        <v>71.72</v>
+      </c>
+      <c r="M42">
+        <f>K42+L42</f>
+        <v>133.05000000000001</v>
+      </c>
+      <c r="N42">
+        <f>K42^2</f>
+        <v>3761.3688999999999</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>5143.7583999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>38.83</v>
+      </c>
+      <c r="K43">
+        <v>50.49</v>
+      </c>
+      <c r="L43">
+        <v>104.96</v>
+      </c>
+      <c r="M43">
+        <f>K43+L43</f>
+        <v>155.44999999999999</v>
+      </c>
+      <c r="N43">
+        <f>K43^2</f>
+        <v>2549.2401</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>11016.601599999998</v>
+      </c>
+    </row>
+    <row r="44" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>55.97</v>
+      </c>
+      <c r="K44">
+        <v>45.31</v>
+      </c>
+      <c r="L44">
+        <v>93.04</v>
+      </c>
+      <c r="M44">
+        <f>K44+L44</f>
+        <v>138.35000000000002</v>
+      </c>
+      <c r="N44">
+        <f>K44^2</f>
+        <v>2052.9961000000003</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>8656.4416000000019</v>
+      </c>
+    </row>
+    <row r="45" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="K45">
+        <v>161.69</v>
+      </c>
+      <c r="L45">
+        <v>40.92</v>
+      </c>
+      <c r="M45">
+        <f>K45+L45</f>
+        <v>202.61</v>
+      </c>
+      <c r="N45">
+        <f>K45^2</f>
+        <v>26143.6561</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>1674.4464</v>
+      </c>
+    </row>
+    <row r="46" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>24.56</v>
+      </c>
+      <c r="K46">
+        <v>154.59</v>
+      </c>
+      <c r="L46">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="M46">
+        <f>K46+L46</f>
+        <v>195.36</v>
+      </c>
+      <c r="N46">
+        <f>K46^2</f>
+        <v>23898.0681</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>1662.1929000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>47.03</v>
+      </c>
+      <c r="K47">
+        <v>153.97999999999999</v>
+      </c>
+      <c r="L47">
+        <v>76.25</v>
+      </c>
+      <c r="M47">
+        <f>K47+L47</f>
+        <v>230.23</v>
+      </c>
+      <c r="N47">
+        <f>K47^2</f>
+        <v>23709.840399999997</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>5814.0625</v>
+      </c>
+    </row>
+    <row r="48" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>49.17</v>
+      </c>
+      <c r="K48">
+        <v>86.87</v>
+      </c>
+      <c r="L48">
+        <v>69.28</v>
+      </c>
+      <c r="M48">
+        <f>K48+L48</f>
+        <v>156.15</v>
+      </c>
+      <c r="N48">
+        <f>K48^2</f>
+        <v>7546.3969000000006</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>4799.7183999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>59.9</v>
+      </c>
+      <c r="K49">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="L49">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M49">
+        <f>K49+L49</f>
+        <v>146.56</v>
+      </c>
+      <c r="N49">
+        <f>K49^2</f>
+        <v>6554.5215999999991</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>4303.3599999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>149.55000000000001</v>
+      </c>
+      <c r="K50">
+        <v>56.52</v>
+      </c>
+      <c r="L50">
+        <v>24.73</v>
+      </c>
+      <c r="M50">
+        <f>K50+L50</f>
+        <v>81.25</v>
+      </c>
+      <c r="N50">
+        <f>K50^2</f>
+        <v>3194.5104000000006</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>611.5729</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>256.73</v>
+      </c>
+      <c r="K51">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="L51">
+        <v>131.6</v>
+      </c>
+      <c r="M51">
+        <f>K51+L51</f>
+        <v>166.51</v>
+      </c>
+      <c r="N51">
+        <f>K51^2</f>
+        <v>1218.7080999999998</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>17318.559999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>109.27</v>
+      </c>
+      <c r="K52">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="L52">
+        <v>148.09</v>
+      </c>
+      <c r="M52">
+        <f>K52+L52</f>
+        <v>186.22</v>
+      </c>
+      <c r="N52">
+        <f>K52^2</f>
+        <v>1453.8969000000002</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>21930.648100000002</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>95.84</v>
+      </c>
+      <c r="K53">
+        <v>66.58</v>
+      </c>
+      <c r="L53">
+        <v>82.8</v>
+      </c>
+      <c r="M53">
+        <f>K53+L53</f>
+        <v>149.38</v>
+      </c>
+      <c r="N53">
+        <f>K53^2</f>
+        <v>4432.8963999999996</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>6855.8399999999992</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>87.91</v>
+      </c>
+      <c r="K54">
+        <v>94.23</v>
+      </c>
+      <c r="L54">
+        <v>33.1</v>
+      </c>
+      <c r="M54">
+        <f>K54+L54</f>
+        <v>127.33000000000001</v>
+      </c>
+      <c r="N54">
+        <f>K54^2</f>
+        <v>8879.2929000000004</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>1095.6100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="K55">
+        <v>178.7</v>
+      </c>
+      <c r="L55">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="M55">
+        <f>K55+L55</f>
+        <v>198.45999999999998</v>
+      </c>
+      <c r="N55">
+        <f>K55^2</f>
+        <v>31933.689999999995</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>390.45760000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>239.16</v>
+      </c>
+      <c r="K56">
+        <v>218.14</v>
+      </c>
+      <c r="L56">
+        <v>90.98</v>
+      </c>
+      <c r="M56">
+        <f>K56+L56</f>
+        <v>309.12</v>
+      </c>
+      <c r="N56">
+        <f>K56^2</f>
+        <v>47585.059599999993</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>8277.3604000000014</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>266.58999999999997</v>
+      </c>
+      <c r="K57">
+        <v>176.8</v>
+      </c>
+      <c r="L57">
+        <v>107.13</v>
+      </c>
+      <c r="M57">
+        <f>K57+L57</f>
+        <v>283.93</v>
+      </c>
+      <c r="N57">
+        <f>K57^2</f>
+        <v>31258.240000000005</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>11476.836899999998</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>138.85</v>
+      </c>
+      <c r="K58">
+        <v>50.05</v>
+      </c>
+      <c r="L58">
+        <v>178.57</v>
+      </c>
+      <c r="M58">
+        <f>K58+L58</f>
+        <v>228.62</v>
+      </c>
+      <c r="N58">
+        <f>K58^2</f>
+        <v>2505.0024999999996</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>31887.244899999998</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>139.15</v>
+      </c>
+      <c r="K59">
+        <v>40.43</v>
+      </c>
+      <c r="L59">
+        <v>28.02</v>
+      </c>
+      <c r="M59">
+        <f>K59+L59</f>
+        <v>68.45</v>
+      </c>
+      <c r="N59">
+        <f>K59^2</f>
+        <v>1634.5849000000001</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>785.12040000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>201.42</v>
+      </c>
+      <c r="K60">
+        <v>18.66</v>
+      </c>
+      <c r="L60">
+        <v>198.53</v>
+      </c>
+      <c r="M60">
+        <f>K60+L60</f>
+        <v>217.19</v>
+      </c>
+      <c r="N60">
+        <f>K60^2</f>
+        <v>348.19560000000001</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>39414.160900000003</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>123.97</v>
+      </c>
+      <c r="K61">
+        <v>201.53</v>
+      </c>
+      <c r="L61">
+        <v>99.78</v>
+      </c>
+      <c r="M61">
+        <f>K61+L61</f>
+        <v>301.31</v>
+      </c>
+      <c r="N61">
+        <f>K61^2</f>
+        <v>40614.340900000003</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>9956.0483999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>358.79</v>
+      </c>
+      <c r="K62">
+        <v>563.69000000000005</v>
+      </c>
+      <c r="L62">
+        <v>405.17</v>
+      </c>
+      <c r="M62">
+        <f>K62+L62</f>
+        <v>968.86000000000013</v>
+      </c>
+      <c r="N62">
+        <f>K62^2</f>
+        <v>317746.41610000009</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>164162.72890000002</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J63">
+        <v>875.73</v>
+      </c>
+      <c r="K63">
+        <v>724.93</v>
+      </c>
+      <c r="L63">
+        <v>745.69</v>
+      </c>
+      <c r="M63">
+        <f>K63+L63</f>
+        <v>1470.62</v>
+      </c>
+      <c r="N63">
+        <f>K63^2</f>
+        <v>525523.50489999994</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>556053.57610000006</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J64">
+        <v>1240.48</v>
+      </c>
+      <c r="K64">
+        <v>1432.46</v>
+      </c>
+      <c r="L64">
+        <v>1693.71</v>
+      </c>
+      <c r="M64">
+        <f>K64+L64</f>
+        <v>3126.17</v>
+      </c>
+      <c r="N64">
+        <f>K64^2</f>
+        <v>2051941.6516000002</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>2868653.5641000001</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J65">
+        <v>1334.54</v>
+      </c>
+      <c r="K65">
+        <v>4620.0200000000004</v>
+      </c>
+      <c r="L65">
+        <v>5316</v>
+      </c>
+      <c r="M65">
+        <f>K65+L65</f>
+        <v>9936.02</v>
+      </c>
+      <c r="N65">
+        <f>K65^2</f>
+        <v>21344584.800400004</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>28259856</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="L66" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <f>SUM(M2:M65)</f>
+        <v>55764.070000000022</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:O66" si="1">SUM(N2:N65)</f>
+        <v>99397748.581399962</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>134097028.7013</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68">
+        <f>M66/SQRT(N66*O66)</f>
+        <v>4.8301054521103498E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="M72">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N72">
+        <f>M72*1000</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Projet/Calcul dB.xlsx
+++ b/Projet/Calcul dB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85e7673ddcb14ddb/Documents/PlatformIO/Projects/Reconnaissance-Vocale/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{C5547991-004F-4A95-8497-4855271336BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B1A049-F208-4617-8D9F-6807C817B6BC}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="8_{C5547991-004F-4A95-8497-4855271336BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE7BA12-B2B4-492A-8390-7968E5D78F7C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{922D7660-369A-4C6C-BD8E-AD8A21C21B19}"/>
+    <workbookView xWindow="-28920" yWindow="-7140" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{922D7660-369A-4C6C-BD8E-AD8A21C21B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Un" sheetId="6" r:id="rId5"/>
     <sheet name="Correlation" sheetId="3" r:id="rId6"/>
     <sheet name="Thomas" sheetId="7" r:id="rId7"/>
+    <sheet name="trois" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7889,6 +7890,4085 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Trois</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$A$1:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5739.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1177.1300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>226.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>144.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.59</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83.94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>144.62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.65</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52.59</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>114.89</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.08</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>121.45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>226.06</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>225.49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47.78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>242.11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>86.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>156.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>184.68</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1177.1300000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$B$1:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4430.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2052.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>317.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.43</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>126.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85.43</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.53</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86.58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>117.39</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>160.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.68</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.01</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>279.69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>317.42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>127.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80.52</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>149.18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>165.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>103.66</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>94.59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>238.17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>284.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2052.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$C$1:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3847.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1774.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>77.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47.19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37.72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.67</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>57.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59.23</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75.69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24.19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>131.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>115.58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68.67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64.52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>125.78</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>254.03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1774.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$D$1:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2361.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1344.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>122.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.94</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57.69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65.52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>63.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>123.35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>122.63</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57.08</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>121.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>122.66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>111.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118.62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.89</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>232.63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>358.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1344.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$E$1:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1797.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>548.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>727.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45.65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>134.13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>108.04</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>164.06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>285.86</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>466.98</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>727.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>548.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$F$1:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2071.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1348.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>451.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.72</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29.18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.05</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91.23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>95.74</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106.43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>142.47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.69</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>154.41</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>451.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1348.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$G$1:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1920.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1197.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.58</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49.29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71.33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83.88</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55.78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102.76</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>120.68</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57.72</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>107.93</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.43</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>162.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>313.7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>392.31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1197.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$H$1:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2640.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1885.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1313.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>817.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.52</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>64.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.36</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52.51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.81</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.36</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.71</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95.63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>144.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>127.41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>161.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>131.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>299.42</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>398.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>817.57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1313.76</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1885.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$I$1:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5216.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3675.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1926.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>788.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>138.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69.77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.77</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86.04</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83.72</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>138.94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>132.13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58.31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>128.69</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>214.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>97.66</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>146.53</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>289.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>330.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>450.53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>788.24</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1926.77</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3675.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$J$1:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3004.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1353.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.56</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.61</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>74.38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41.07</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>144.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>130.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>138.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58.81</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>117.73</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>147.69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1353.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$K$1:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5038.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2535.4699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>841.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>473.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>123.14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.69</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>108.52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.67</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65.89</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.21</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159.21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>117.94</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>125.78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66.34</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>107.72</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>121.97</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>473.81</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>841.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2535.4699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$L$1:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5073.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2074.5700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1191.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>626.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74.22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83.59</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.31</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.79</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>64.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52.15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>118.12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127.62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>102.68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>626.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1191.92</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2074.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$M$1:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1788.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1122.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>449.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.81</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.48</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>83.43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>119.72</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>118.74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71.88</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>136.37</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>119.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.68</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97.15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>449.78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1122.3399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$N$1:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2715.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1525.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.57</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.59</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.57</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70.16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.73</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.53</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>84.94</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83.78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>101.44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76.58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>108.26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.37</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>266.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>292.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1525.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$O$1:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1110.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>567.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.09</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.95</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41.55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.08</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.67</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>83.77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>148.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>174.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>295.57</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>567.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-06BF-4260-B080-47D0D0C7C018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1703358415"/>
+        <c:axId val="1703352591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1703358415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703352591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1703352591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703358415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Moyenne</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> trois</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35428455818022747"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$P$1:$P$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3250.5039999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1681.6053333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>673.69066666666674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370.36800000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.21733333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.26466666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.493333333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109.44466666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.550666666666672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.46866666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.931333333333342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.357999999999976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.576666666666668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.694666666666677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.92799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.829333333333324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.481999999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.219333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.441333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.961999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.457333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.054666666666662</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.501999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.792666666666669</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.286000000000016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.619333333333344</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.718666666666664</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.252000000000017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.376666666666658</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.498666666666658</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.376666666666658</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.252000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.718666666666664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.619333333333344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.286000000000016</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41.792666666666669</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.501999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.054666666666662</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45.457333333333331</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.961999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67.441333333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55.219333333333331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44.481999999999992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.829333333333324</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60.927333333333323</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.694666666666677</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>78.576666666666668</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>76.357999999999976</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>87.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>107.46866666666665</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90.550666666666672</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>109.44400000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>98.493333333333339</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>104.26466666666666</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>149.21733333333336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>370.36800000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>673.69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1681.6040000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC1A-467F-BB08-F0C40E4DD05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1528926175"/>
+        <c:axId val="1528927007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1528926175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528927007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1528927007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528926175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -16948,6 +21028,86 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19333,6 +23493,1012 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24352,6 +29518,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>106362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>131762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419325D8-0950-C4DB-459E-893503856B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>46037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF247D8-223D-B973-3BC8-54C247C2E91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -40678,7 +45921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B424EB-F092-4479-B11A-4CE0B8A05BF3}">
   <dimension ref="A1:A336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -42287,4 +47530,3284 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75285CBC-C4BD-4E1E-8D39-2254A7830E2A}">
+  <dimension ref="A1:P64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>5739.77</v>
+      </c>
+      <c r="B1">
+        <v>4430.2700000000004</v>
+      </c>
+      <c r="C1">
+        <v>3847.29</v>
+      </c>
+      <c r="D1">
+        <v>2361.62</v>
+      </c>
+      <c r="E1">
+        <v>1797.72</v>
+      </c>
+      <c r="F1">
+        <v>2071.56</v>
+      </c>
+      <c r="G1">
+        <v>1920.98</v>
+      </c>
+      <c r="H1">
+        <v>2640.07</v>
+      </c>
+      <c r="I1">
+        <v>5216.74</v>
+      </c>
+      <c r="J1">
+        <v>3004.89</v>
+      </c>
+      <c r="K1">
+        <v>5038.09</v>
+      </c>
+      <c r="L1">
+        <v>5073.83</v>
+      </c>
+      <c r="M1">
+        <v>1788.82</v>
+      </c>
+      <c r="N1">
+        <v>2715.63</v>
+      </c>
+      <c r="O1">
+        <v>1110.28</v>
+      </c>
+      <c r="P1">
+        <f>AVERAGE(A1:O1)</f>
+        <v>3250.5039999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2220</v>
+      </c>
+      <c r="B2">
+        <v>2052.11</v>
+      </c>
+      <c r="C2">
+        <v>1774.64</v>
+      </c>
+      <c r="D2">
+        <v>1344.76</v>
+      </c>
+      <c r="E2">
+        <v>548.48</v>
+      </c>
+      <c r="F2">
+        <v>1348.05</v>
+      </c>
+      <c r="G2">
+        <v>1197.04</v>
+      </c>
+      <c r="H2">
+        <v>1885.17</v>
+      </c>
+      <c r="I2">
+        <v>3675.49</v>
+      </c>
+      <c r="J2">
+        <v>1353.49</v>
+      </c>
+      <c r="K2">
+        <v>2535.4699999999998</v>
+      </c>
+      <c r="L2">
+        <v>2074.5700000000002</v>
+      </c>
+      <c r="M2">
+        <v>1122.3399999999999</v>
+      </c>
+      <c r="N2">
+        <v>1525.38</v>
+      </c>
+      <c r="O2">
+        <v>567.09</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P64" si="0">AVERAGE(A2:O2)</f>
+        <v>1681.6053333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1177.1300000000001</v>
+      </c>
+      <c r="B3">
+        <v>284.62</v>
+      </c>
+      <c r="C3">
+        <v>254.03</v>
+      </c>
+      <c r="D3">
+        <v>358.36</v>
+      </c>
+      <c r="E3">
+        <v>727.36</v>
+      </c>
+      <c r="F3">
+        <v>451.88</v>
+      </c>
+      <c r="G3">
+        <v>392.31</v>
+      </c>
+      <c r="H3">
+        <v>1313.76</v>
+      </c>
+      <c r="I3">
+        <v>1926.77</v>
+      </c>
+      <c r="J3">
+        <v>147.69</v>
+      </c>
+      <c r="K3">
+        <v>841.38</v>
+      </c>
+      <c r="L3">
+        <v>1191.93</v>
+      </c>
+      <c r="M3">
+        <v>449.78</v>
+      </c>
+      <c r="N3">
+        <v>292.79000000000002</v>
+      </c>
+      <c r="O3">
+        <v>295.57</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>673.69066666666674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>662</v>
+      </c>
+      <c r="B4">
+        <v>238.17</v>
+      </c>
+      <c r="C4">
+        <v>125.78</v>
+      </c>
+      <c r="D4">
+        <v>232.63</v>
+      </c>
+      <c r="E4">
+        <v>466.98</v>
+      </c>
+      <c r="F4">
+        <v>154.41</v>
+      </c>
+      <c r="G4">
+        <v>313.7</v>
+      </c>
+      <c r="H4">
+        <v>817.57</v>
+      </c>
+      <c r="I4">
+        <v>788.24</v>
+      </c>
+      <c r="J4">
+        <v>117.73</v>
+      </c>
+      <c r="K4">
+        <v>473.81</v>
+      </c>
+      <c r="L4">
+        <v>626.45000000000005</v>
+      </c>
+      <c r="M4">
+        <v>97.15</v>
+      </c>
+      <c r="N4">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="O4">
+        <v>174.8</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>370.36800000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>184.68</v>
+      </c>
+      <c r="B5">
+        <v>94.59</v>
+      </c>
+      <c r="C5">
+        <v>64.52</v>
+      </c>
+      <c r="D5">
+        <v>22.89</v>
+      </c>
+      <c r="E5">
+        <v>285.86</v>
+      </c>
+      <c r="F5">
+        <v>44.54</v>
+      </c>
+      <c r="G5">
+        <v>162.9</v>
+      </c>
+      <c r="H5">
+        <v>398.75</v>
+      </c>
+      <c r="I5">
+        <v>450.53</v>
+      </c>
+      <c r="J5">
+        <v>58.81</v>
+      </c>
+      <c r="K5">
+        <v>121.97</v>
+      </c>
+      <c r="L5">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="M5">
+        <v>59.68</v>
+      </c>
+      <c r="N5">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="O5">
+        <v>148.65</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>149.21733333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="B6">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="C6">
+        <v>56.87</v>
+      </c>
+      <c r="D6">
+        <v>118.62</v>
+      </c>
+      <c r="E6">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="F6">
+        <v>93.76</v>
+      </c>
+      <c r="G6">
+        <v>17.43</v>
+      </c>
+      <c r="H6">
+        <v>299.42</v>
+      </c>
+      <c r="I6">
+        <v>330.41</v>
+      </c>
+      <c r="J6">
+        <v>14.62</v>
+      </c>
+      <c r="K6">
+        <v>107.72</v>
+      </c>
+      <c r="L6">
+        <v>46.87</v>
+      </c>
+      <c r="M6">
+        <v>61.3</v>
+      </c>
+      <c r="N6">
+        <v>25.73</v>
+      </c>
+      <c r="O6">
+        <v>83.77</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>104.26466666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>86.97</v>
+      </c>
+      <c r="B7">
+        <v>25.59</v>
+      </c>
+      <c r="C7">
+        <v>68.67</v>
+      </c>
+      <c r="D7">
+        <v>111.32</v>
+      </c>
+      <c r="E7">
+        <v>164.06</v>
+      </c>
+      <c r="F7">
+        <v>60.5</v>
+      </c>
+      <c r="G7">
+        <v>47.56</v>
+      </c>
+      <c r="H7">
+        <v>131.97</v>
+      </c>
+      <c r="I7">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="J7">
+        <v>138.21</v>
+      </c>
+      <c r="K7">
+        <v>12.69</v>
+      </c>
+      <c r="L7">
+        <v>102.68</v>
+      </c>
+      <c r="M7">
+        <v>119.58</v>
+      </c>
+      <c r="N7">
+        <v>58.37</v>
+      </c>
+      <c r="O7">
+        <v>60.13</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>98.493333333333339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>242.11</v>
+      </c>
+      <c r="B8">
+        <v>103.67</v>
+      </c>
+      <c r="C8">
+        <v>115.58</v>
+      </c>
+      <c r="D8">
+        <v>37.6</v>
+      </c>
+      <c r="E8">
+        <v>108.04</v>
+      </c>
+      <c r="F8">
+        <v>31.69</v>
+      </c>
+      <c r="G8">
+        <v>107.93</v>
+      </c>
+      <c r="H8">
+        <v>161.63999999999999</v>
+      </c>
+      <c r="I8">
+        <v>146.53</v>
+      </c>
+      <c r="J8">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="K8">
+        <v>66.34</v>
+      </c>
+      <c r="L8">
+        <v>127.62</v>
+      </c>
+      <c r="M8">
+        <v>136.37</v>
+      </c>
+      <c r="N8">
+        <v>82.64</v>
+      </c>
+      <c r="O8">
+        <v>43.43</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>109.44466666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>47.78</v>
+      </c>
+      <c r="B9">
+        <v>165.34</v>
+      </c>
+      <c r="C9">
+        <v>131.13999999999999</v>
+      </c>
+      <c r="D9">
+        <v>122.66</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>95.6</v>
+      </c>
+      <c r="G9">
+        <v>42.5</v>
+      </c>
+      <c r="H9">
+        <v>127.41</v>
+      </c>
+      <c r="I9">
+        <v>22.45</v>
+      </c>
+      <c r="J9">
+        <v>38.19</v>
+      </c>
+      <c r="K9">
+        <v>125.78</v>
+      </c>
+      <c r="L9">
+        <v>143.6</v>
+      </c>
+      <c r="M9">
+        <v>71.88</v>
+      </c>
+      <c r="N9">
+        <v>108.26</v>
+      </c>
+      <c r="O9">
+        <v>48.67</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>90.550666666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>225.49</v>
+      </c>
+      <c r="B10">
+        <v>149.18</v>
+      </c>
+      <c r="C10">
+        <v>60.13</v>
+      </c>
+      <c r="D10">
+        <v>121.02</v>
+      </c>
+      <c r="E10">
+        <v>65.41</v>
+      </c>
+      <c r="F10">
+        <v>142.47</v>
+      </c>
+      <c r="G10">
+        <v>57.72</v>
+      </c>
+      <c r="H10">
+        <v>144.6</v>
+      </c>
+      <c r="I10">
+        <v>97.66</v>
+      </c>
+      <c r="J10">
+        <v>144.28</v>
+      </c>
+      <c r="K10">
+        <v>117.94</v>
+      </c>
+      <c r="L10">
+        <v>118.12</v>
+      </c>
+      <c r="M10">
+        <v>43.35</v>
+      </c>
+      <c r="N10">
+        <v>76.58</v>
+      </c>
+      <c r="O10">
+        <v>48.08</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>107.46866666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>226.06</v>
+      </c>
+      <c r="B11">
+        <v>80.52</v>
+      </c>
+      <c r="C11">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D11">
+        <v>33.89</v>
+      </c>
+      <c r="E11">
+        <v>15.24</v>
+      </c>
+      <c r="F11">
+        <v>86.3</v>
+      </c>
+      <c r="G11">
+        <v>22.46</v>
+      </c>
+      <c r="H11">
+        <v>95.63</v>
+      </c>
+      <c r="I11">
+        <v>214.75</v>
+      </c>
+      <c r="J11">
+        <v>41.07</v>
+      </c>
+      <c r="K11">
+        <v>159.21</v>
+      </c>
+      <c r="L11">
+        <v>52.15</v>
+      </c>
+      <c r="M11">
+        <v>71.61</v>
+      </c>
+      <c r="N11">
+        <v>101.44</v>
+      </c>
+      <c r="O11">
+        <v>41.54</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>87.931333333333342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>121.45</v>
+      </c>
+      <c r="B12">
+        <v>127.54</v>
+      </c>
+      <c r="C12">
+        <v>24.19</v>
+      </c>
+      <c r="D12">
+        <v>27.7</v>
+      </c>
+      <c r="E12">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="F12">
+        <v>106.43</v>
+      </c>
+      <c r="G12">
+        <v>92.44</v>
+      </c>
+      <c r="H12">
+        <v>37.31</v>
+      </c>
+      <c r="I12">
+        <v>128.69</v>
+      </c>
+      <c r="J12">
+        <v>26.63</v>
+      </c>
+      <c r="K12">
+        <v>85.8</v>
+      </c>
+      <c r="L12">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="M12">
+        <v>118.74</v>
+      </c>
+      <c r="N12">
+        <v>83.78</v>
+      </c>
+      <c r="O12">
+        <v>21.81</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>76.357999999999976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>49.56</v>
+      </c>
+      <c r="B13">
+        <v>317.42</v>
+      </c>
+      <c r="C13">
+        <v>44.16</v>
+      </c>
+      <c r="D13">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="E13">
+        <v>97.34</v>
+      </c>
+      <c r="F13">
+        <v>95.74</v>
+      </c>
+      <c r="G13">
+        <v>99.09</v>
+      </c>
+      <c r="H13">
+        <v>22.71</v>
+      </c>
+      <c r="I13">
+        <v>58.31</v>
+      </c>
+      <c r="J13">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="K13">
+        <v>22.21</v>
+      </c>
+      <c r="L13">
+        <v>53.79</v>
+      </c>
+      <c r="M13">
+        <v>119.72</v>
+      </c>
+      <c r="N13">
+        <v>84.94</v>
+      </c>
+      <c r="O13">
+        <v>55.95</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>78.576666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>47.08</v>
+      </c>
+      <c r="B14">
+        <v>279.69</v>
+      </c>
+      <c r="C14">
+        <v>75.69</v>
+      </c>
+      <c r="D14">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E14">
+        <v>134.13</v>
+      </c>
+      <c r="F14">
+        <v>91.23</v>
+      </c>
+      <c r="G14">
+        <v>120.68</v>
+      </c>
+      <c r="H14">
+        <v>50.2</v>
+      </c>
+      <c r="I14">
+        <v>30.59</v>
+      </c>
+      <c r="J14">
+        <v>46.45</v>
+      </c>
+      <c r="K14">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="L14">
+        <v>59.15</v>
+      </c>
+      <c r="M14">
+        <v>83.43</v>
+      </c>
+      <c r="N14">
+        <v>10.36</v>
+      </c>
+      <c r="O14">
+        <v>60.9</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>82.694666666666677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>114.89</v>
+      </c>
+      <c r="B15">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="C15">
+        <v>36.56</v>
+      </c>
+      <c r="D15">
+        <v>57.08</v>
+      </c>
+      <c r="E15">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F15">
+        <v>60.9</v>
+      </c>
+      <c r="G15">
+        <v>102.76</v>
+      </c>
+      <c r="H15">
+        <v>42.36</v>
+      </c>
+      <c r="I15">
+        <v>132.13999999999999</v>
+      </c>
+      <c r="J15">
+        <v>74.38</v>
+      </c>
+      <c r="K15">
+        <v>25.1</v>
+      </c>
+      <c r="L15">
+        <v>46.31</v>
+      </c>
+      <c r="M15">
+        <v>31.48</v>
+      </c>
+      <c r="N15">
+        <v>47.45</v>
+      </c>
+      <c r="O15">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>60.92799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>47.01</v>
+      </c>
+      <c r="C16">
+        <v>79.59</v>
+      </c>
+      <c r="D16">
+        <v>32.67</v>
+      </c>
+      <c r="E16">
+        <v>45.65</v>
+      </c>
+      <c r="F16">
+        <v>15.61</v>
+      </c>
+      <c r="G16">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>27.46</v>
+      </c>
+      <c r="I16">
+        <v>138.94</v>
+      </c>
+      <c r="J16">
+        <v>47.61</v>
+      </c>
+      <c r="K16">
+        <v>65.89</v>
+      </c>
+      <c r="L16">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="M16">
+        <v>23.89</v>
+      </c>
+      <c r="N16">
+        <v>20.88</v>
+      </c>
+      <c r="O16">
+        <v>36.56</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>50.829333333333324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>40.22</v>
+      </c>
+      <c r="B17">
+        <v>19.27</v>
+      </c>
+      <c r="C17">
+        <v>46.64</v>
+      </c>
+      <c r="D17">
+        <v>122.63</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>29.9</v>
+      </c>
+      <c r="G17">
+        <v>55.78</v>
+      </c>
+      <c r="H17">
+        <v>20.03</v>
+      </c>
+      <c r="I17">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="J17">
+        <v>63.84</v>
+      </c>
+      <c r="K17">
+        <v>32.76</v>
+      </c>
+      <c r="L17">
+        <v>83.59</v>
+      </c>
+      <c r="M17">
+        <v>37.93</v>
+      </c>
+      <c r="N17">
+        <v>28.23</v>
+      </c>
+      <c r="O17">
+        <v>18.54</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>44.481999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>52.59</v>
+      </c>
+      <c r="B18">
+        <v>26.68</v>
+      </c>
+      <c r="C18">
+        <v>59.23</v>
+      </c>
+      <c r="D18">
+        <v>123.35</v>
+      </c>
+      <c r="E18">
+        <v>37.6</v>
+      </c>
+      <c r="F18">
+        <v>22.05</v>
+      </c>
+      <c r="G18">
+        <v>31.65</v>
+      </c>
+      <c r="H18">
+        <v>43.19</v>
+      </c>
+      <c r="I18">
+        <v>18.45</v>
+      </c>
+      <c r="J18">
+        <v>60.1</v>
+      </c>
+      <c r="K18">
+        <v>73.62</v>
+      </c>
+      <c r="L18">
+        <v>49.22</v>
+      </c>
+      <c r="M18">
+        <v>51.95</v>
+      </c>
+      <c r="N18">
+        <v>15.53</v>
+      </c>
+      <c r="O18">
+        <v>12.67</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>45.192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>90.75</v>
+      </c>
+      <c r="B19">
+        <v>57.77</v>
+      </c>
+      <c r="C19">
+        <v>40.82</v>
+      </c>
+      <c r="D19">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="E19">
+        <v>63.62</v>
+      </c>
+      <c r="F19">
+        <v>29.18</v>
+      </c>
+      <c r="G19">
+        <v>59.65</v>
+      </c>
+      <c r="H19">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="I19">
+        <v>51.5</v>
+      </c>
+      <c r="J19">
+        <v>41.5</v>
+      </c>
+      <c r="K19">
+        <v>76.8</v>
+      </c>
+      <c r="L19">
+        <v>46.77</v>
+      </c>
+      <c r="M19">
+        <v>49.53</v>
+      </c>
+      <c r="N19">
+        <v>52.62</v>
+      </c>
+      <c r="O19">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>55.219333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>178.19</v>
+      </c>
+      <c r="B20">
+        <v>160.72999999999999</v>
+      </c>
+      <c r="C20">
+        <v>13.33</v>
+      </c>
+      <c r="D20">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="E20">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="F20">
+        <v>42.72</v>
+      </c>
+      <c r="G20">
+        <v>83.88</v>
+      </c>
+      <c r="H20">
+        <v>50.81</v>
+      </c>
+      <c r="I20">
+        <v>83.72</v>
+      </c>
+      <c r="J20">
+        <v>64.36</v>
+      </c>
+      <c r="K20">
+        <v>94.93</v>
+      </c>
+      <c r="L20">
+        <v>35.68</v>
+      </c>
+      <c r="M20">
+        <v>59.08</v>
+      </c>
+      <c r="N20">
+        <v>41.85</v>
+      </c>
+      <c r="O20">
+        <v>49.15</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>67.441333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>45.4</v>
+      </c>
+      <c r="B21">
+        <v>117.39</v>
+      </c>
+      <c r="C21">
+        <v>57.62</v>
+      </c>
+      <c r="D21">
+        <v>61.59</v>
+      </c>
+      <c r="E21">
+        <v>43.1</v>
+      </c>
+      <c r="F21">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G21">
+        <v>26.21</v>
+      </c>
+      <c r="H21">
+        <v>52.51</v>
+      </c>
+      <c r="I21">
+        <v>5.36</v>
+      </c>
+      <c r="J21">
+        <v>24.25</v>
+      </c>
+      <c r="K21">
+        <v>72.67</v>
+      </c>
+      <c r="L21">
+        <v>31.95</v>
+      </c>
+      <c r="M21">
+        <v>41.81</v>
+      </c>
+      <c r="N21">
+        <v>45.53</v>
+      </c>
+      <c r="O21">
+        <v>25.34</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>45.961999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>82.65</v>
+      </c>
+      <c r="B22">
+        <v>86.58</v>
+      </c>
+      <c r="C22">
+        <v>41.46</v>
+      </c>
+      <c r="D22">
+        <v>60.49</v>
+      </c>
+      <c r="E22">
+        <v>33.99</v>
+      </c>
+      <c r="F22">
+        <v>47.37</v>
+      </c>
+      <c r="G22">
+        <v>32.39</v>
+      </c>
+      <c r="H22">
+        <v>49.36</v>
+      </c>
+      <c r="I22">
+        <v>51.08</v>
+      </c>
+      <c r="J22">
+        <v>50.31</v>
+      </c>
+      <c r="K22">
+        <v>46.41</v>
+      </c>
+      <c r="L22">
+        <v>13.05</v>
+      </c>
+      <c r="M22">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N22">
+        <v>51.73</v>
+      </c>
+      <c r="O22">
+        <v>15.09</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>45.457333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>144.62</v>
+      </c>
+      <c r="B23">
+        <v>64.53</v>
+      </c>
+      <c r="C23">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="D23">
+        <v>63.32</v>
+      </c>
+      <c r="E23">
+        <v>30.58</v>
+      </c>
+      <c r="F23">
+        <v>48.25</v>
+      </c>
+      <c r="G23">
+        <v>31.72</v>
+      </c>
+      <c r="H23">
+        <v>13.59</v>
+      </c>
+      <c r="I23">
+        <v>15.74</v>
+      </c>
+      <c r="J23">
+        <v>20.72</v>
+      </c>
+      <c r="K23">
+        <v>108.52</v>
+      </c>
+      <c r="L23">
+        <v>13.25</v>
+      </c>
+      <c r="M23">
+        <v>7.6</v>
+      </c>
+      <c r="N23">
+        <v>65.41</v>
+      </c>
+      <c r="O23">
+        <v>30.15</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>49.054666666666662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>62.35</v>
+      </c>
+      <c r="B24">
+        <v>19.38</v>
+      </c>
+      <c r="C24">
+        <v>34.67</v>
+      </c>
+      <c r="D24">
+        <v>20.3</v>
+      </c>
+      <c r="E24">
+        <v>30.75</v>
+      </c>
+      <c r="F24">
+        <v>40.46</v>
+      </c>
+      <c r="G24">
+        <v>42.58</v>
+      </c>
+      <c r="H24">
+        <v>64.22</v>
+      </c>
+      <c r="I24">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="J24">
+        <v>58.14</v>
+      </c>
+      <c r="K24">
+        <v>85.99</v>
+      </c>
+      <c r="L24">
+        <v>44.72</v>
+      </c>
+      <c r="M24">
+        <v>30.01</v>
+      </c>
+      <c r="N24">
+        <v>70.16</v>
+      </c>
+      <c r="O24">
+        <v>18.62</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>46.501999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>63.61</v>
+      </c>
+      <c r="B25">
+        <v>27.42</v>
+      </c>
+      <c r="C25">
+        <v>50.53</v>
+      </c>
+      <c r="D25">
+        <v>65.52</v>
+      </c>
+      <c r="E25">
+        <v>42.39</v>
+      </c>
+      <c r="F25">
+        <v>51.49</v>
+      </c>
+      <c r="G25">
+        <v>10.26</v>
+      </c>
+      <c r="H25">
+        <v>81.05</v>
+      </c>
+      <c r="I25">
+        <v>60.85</v>
+      </c>
+      <c r="J25">
+        <v>64.31</v>
+      </c>
+      <c r="K25">
+        <v>60.13</v>
+      </c>
+      <c r="L25">
+        <v>74.22</v>
+      </c>
+      <c r="M25">
+        <v>27.48</v>
+      </c>
+      <c r="N25">
+        <v>16.39</v>
+      </c>
+      <c r="O25">
+        <v>17</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>47.510000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>54.07</v>
+      </c>
+      <c r="B26">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="C26">
+        <v>37.72</v>
+      </c>
+      <c r="D26">
+        <v>57.69</v>
+      </c>
+      <c r="E26">
+        <v>43.03</v>
+      </c>
+      <c r="F26">
+        <v>29.43</v>
+      </c>
+      <c r="G26">
+        <v>61.85</v>
+      </c>
+      <c r="H26">
+        <v>56.47</v>
+      </c>
+      <c r="I26">
+        <v>46.2</v>
+      </c>
+      <c r="J26">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>33.75</v>
+      </c>
+      <c r="M26">
+        <v>19.66</v>
+      </c>
+      <c r="N26">
+        <v>23.61</v>
+      </c>
+      <c r="O26">
+        <v>33.35</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>41.792666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>50.59</v>
+      </c>
+      <c r="B27">
+        <v>72.38</v>
+      </c>
+      <c r="C27">
+        <v>31.06</v>
+      </c>
+      <c r="D27">
+        <v>29.37</v>
+      </c>
+      <c r="E27">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="F27">
+        <v>23.08</v>
+      </c>
+      <c r="G27">
+        <v>71.33</v>
+      </c>
+      <c r="H27">
+        <v>54.59</v>
+      </c>
+      <c r="I27">
+        <v>96.3</v>
+      </c>
+      <c r="J27">
+        <v>38.51</v>
+      </c>
+      <c r="K27">
+        <v>37.29</v>
+      </c>
+      <c r="L27">
+        <v>9.32</v>
+      </c>
+      <c r="M27">
+        <v>21.52</v>
+      </c>
+      <c r="N27">
+        <v>42.57</v>
+      </c>
+      <c r="O27">
+        <v>36.69</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>42.286000000000016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>73.75</v>
+      </c>
+      <c r="B28">
+        <v>85.43</v>
+      </c>
+      <c r="C28">
+        <v>63.66</v>
+      </c>
+      <c r="D28">
+        <v>20.52</v>
+      </c>
+      <c r="E28">
+        <v>49.72</v>
+      </c>
+      <c r="F28">
+        <v>39.35</v>
+      </c>
+      <c r="G28">
+        <v>67.7</v>
+      </c>
+      <c r="H28">
+        <v>44.92</v>
+      </c>
+      <c r="I28">
+        <v>95.56</v>
+      </c>
+      <c r="J28">
+        <v>27.22</v>
+      </c>
+      <c r="K28">
+        <v>69.67</v>
+      </c>
+      <c r="L28">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="M28">
+        <v>17.5</v>
+      </c>
+      <c r="N28">
+        <v>41.59</v>
+      </c>
+      <c r="O28">
+        <v>5.13</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>51.619333333333344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>48.59</v>
+      </c>
+      <c r="B29">
+        <v>45.45</v>
+      </c>
+      <c r="C29">
+        <v>37.82</v>
+      </c>
+      <c r="D29">
+        <v>7.76</v>
+      </c>
+      <c r="E29">
+        <v>21.5</v>
+      </c>
+      <c r="F29">
+        <v>33.86</v>
+      </c>
+      <c r="G29">
+        <v>49.29</v>
+      </c>
+      <c r="H29">
+        <v>41.54</v>
+      </c>
+      <c r="I29">
+        <v>86.04</v>
+      </c>
+      <c r="J29">
+        <v>9.01</v>
+      </c>
+      <c r="K29">
+        <v>71.47</v>
+      </c>
+      <c r="L29">
+        <v>23.51</v>
+      </c>
+      <c r="M29">
+        <v>20.23</v>
+      </c>
+      <c r="N29">
+        <v>12.08</v>
+      </c>
+      <c r="O29">
+        <v>11.69</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>34.655999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>77.89</v>
+      </c>
+      <c r="B30">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="C30">
+        <v>47.19</v>
+      </c>
+      <c r="D30">
+        <v>41.94</v>
+      </c>
+      <c r="E30">
+        <v>19.32</v>
+      </c>
+      <c r="F30">
+        <v>31.33</v>
+      </c>
+      <c r="G30">
+        <v>5.99</v>
+      </c>
+      <c r="H30">
+        <v>61.52</v>
+      </c>
+      <c r="I30">
+        <v>60.99</v>
+      </c>
+      <c r="J30">
+        <v>7.11</v>
+      </c>
+      <c r="K30">
+        <v>46.69</v>
+      </c>
+      <c r="L30">
+        <v>24.47</v>
+      </c>
+      <c r="M30">
+        <v>15.21</v>
+      </c>
+      <c r="N30">
+        <v>34.22</v>
+      </c>
+      <c r="O30">
+        <v>12.42</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>33.718666666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>83.94</v>
+      </c>
+      <c r="B31">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="C31">
+        <v>48.01</v>
+      </c>
+      <c r="D31">
+        <v>60.07</v>
+      </c>
+      <c r="E31">
+        <v>25.31</v>
+      </c>
+      <c r="F31">
+        <v>20.38</v>
+      </c>
+      <c r="G31">
+        <v>31.22</v>
+      </c>
+      <c r="H31">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="I31">
+        <v>35.99</v>
+      </c>
+      <c r="J31">
+        <v>51.56</v>
+      </c>
+      <c r="K31">
+        <v>12.22</v>
+      </c>
+      <c r="L31">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="M31">
+        <v>11.3</v>
+      </c>
+      <c r="N31">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="O31">
+        <v>5.82</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>36.252000000000017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>69.430000000000007</v>
+      </c>
+      <c r="B32">
+        <v>95.43</v>
+      </c>
+      <c r="C32">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="D32">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E32">
+        <v>15.36</v>
+      </c>
+      <c r="F32">
+        <v>33.47</v>
+      </c>
+      <c r="G32">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="H32">
+        <v>13.04</v>
+      </c>
+      <c r="I32">
+        <v>69.77</v>
+      </c>
+      <c r="J32">
+        <v>54.26</v>
+      </c>
+      <c r="K32">
+        <v>62.99</v>
+      </c>
+      <c r="L32">
+        <v>33.89</v>
+      </c>
+      <c r="M32">
+        <v>18.75</v>
+      </c>
+      <c r="N32">
+        <v>24.81</v>
+      </c>
+      <c r="O32">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>43.376666666666658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>118.25</v>
+      </c>
+      <c r="B33">
+        <v>126.98</v>
+      </c>
+      <c r="C33">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="D33">
+        <v>17.57</v>
+      </c>
+      <c r="E33">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="F33">
+        <v>43.65</v>
+      </c>
+      <c r="G33">
+        <v>13.33</v>
+      </c>
+      <c r="H33">
+        <v>38.93</v>
+      </c>
+      <c r="I33">
+        <v>58.84</v>
+      </c>
+      <c r="J33">
+        <v>44.08</v>
+      </c>
+      <c r="K33">
+        <v>123.14</v>
+      </c>
+      <c r="L33">
+        <v>31.32</v>
+      </c>
+      <c r="M33">
+        <v>28.31</v>
+      </c>
+      <c r="N33">
+        <v>15.55</v>
+      </c>
+      <c r="O33">
+        <v>18.78</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>48.498666666666658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>69.430000000000007</v>
+      </c>
+      <c r="B34">
+        <v>95.43</v>
+      </c>
+      <c r="C34">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="D34">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E34">
+        <v>15.36</v>
+      </c>
+      <c r="F34">
+        <v>33.47</v>
+      </c>
+      <c r="G34">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="H34">
+        <v>13.04</v>
+      </c>
+      <c r="I34">
+        <v>69.77</v>
+      </c>
+      <c r="J34">
+        <v>54.26</v>
+      </c>
+      <c r="K34">
+        <v>62.99</v>
+      </c>
+      <c r="L34">
+        <v>33.89</v>
+      </c>
+      <c r="M34">
+        <v>18.75</v>
+      </c>
+      <c r="N34">
+        <v>24.81</v>
+      </c>
+      <c r="O34">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>43.376666666666658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>83.94</v>
+      </c>
+      <c r="B35">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="C35">
+        <v>48.01</v>
+      </c>
+      <c r="D35">
+        <v>60.07</v>
+      </c>
+      <c r="E35">
+        <v>25.31</v>
+      </c>
+      <c r="F35">
+        <v>20.38</v>
+      </c>
+      <c r="G35">
+        <v>31.22</v>
+      </c>
+      <c r="H35">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="I35">
+        <v>35.99</v>
+      </c>
+      <c r="J35">
+        <v>51.56</v>
+      </c>
+      <c r="K35">
+        <v>12.22</v>
+      </c>
+      <c r="L35">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="M35">
+        <v>11.3</v>
+      </c>
+      <c r="N35">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="O35">
+        <v>5.82</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>36.252000000000017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>77.89</v>
+      </c>
+      <c r="B36">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="C36">
+        <v>47.19</v>
+      </c>
+      <c r="D36">
+        <v>41.94</v>
+      </c>
+      <c r="E36">
+        <v>19.32</v>
+      </c>
+      <c r="F36">
+        <v>31.33</v>
+      </c>
+      <c r="G36">
+        <v>5.99</v>
+      </c>
+      <c r="H36">
+        <v>61.52</v>
+      </c>
+      <c r="I36">
+        <v>60.99</v>
+      </c>
+      <c r="J36">
+        <v>7.11</v>
+      </c>
+      <c r="K36">
+        <v>46.69</v>
+      </c>
+      <c r="L36">
+        <v>24.47</v>
+      </c>
+      <c r="M36">
+        <v>15.21</v>
+      </c>
+      <c r="N36">
+        <v>34.22</v>
+      </c>
+      <c r="O36">
+        <v>12.42</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>33.718666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>48.59</v>
+      </c>
+      <c r="B37">
+        <v>45.45</v>
+      </c>
+      <c r="C37">
+        <v>37.82</v>
+      </c>
+      <c r="D37">
+        <v>7.76</v>
+      </c>
+      <c r="E37">
+        <v>21.5</v>
+      </c>
+      <c r="F37">
+        <v>33.86</v>
+      </c>
+      <c r="G37">
+        <v>49.29</v>
+      </c>
+      <c r="H37">
+        <v>41.54</v>
+      </c>
+      <c r="I37">
+        <v>86.04</v>
+      </c>
+      <c r="J37">
+        <v>9.01</v>
+      </c>
+      <c r="K37">
+        <v>71.47</v>
+      </c>
+      <c r="L37">
+        <v>23.51</v>
+      </c>
+      <c r="M37">
+        <v>20.23</v>
+      </c>
+      <c r="N37">
+        <v>12.08</v>
+      </c>
+      <c r="O37">
+        <v>11.69</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>34.655999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>73.75</v>
+      </c>
+      <c r="B38">
+        <v>85.43</v>
+      </c>
+      <c r="C38">
+        <v>63.66</v>
+      </c>
+      <c r="D38">
+        <v>20.52</v>
+      </c>
+      <c r="E38">
+        <v>49.72</v>
+      </c>
+      <c r="F38">
+        <v>39.35</v>
+      </c>
+      <c r="G38">
+        <v>67.7</v>
+      </c>
+      <c r="H38">
+        <v>44.92</v>
+      </c>
+      <c r="I38">
+        <v>95.56</v>
+      </c>
+      <c r="J38">
+        <v>27.22</v>
+      </c>
+      <c r="K38">
+        <v>69.67</v>
+      </c>
+      <c r="L38">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="M38">
+        <v>17.5</v>
+      </c>
+      <c r="N38">
+        <v>41.59</v>
+      </c>
+      <c r="O38">
+        <v>5.13</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>51.619333333333344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>50.59</v>
+      </c>
+      <c r="B39">
+        <v>72.38</v>
+      </c>
+      <c r="C39">
+        <v>31.06</v>
+      </c>
+      <c r="D39">
+        <v>29.37</v>
+      </c>
+      <c r="E39">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="F39">
+        <v>23.08</v>
+      </c>
+      <c r="G39">
+        <v>71.33</v>
+      </c>
+      <c r="H39">
+        <v>54.59</v>
+      </c>
+      <c r="I39">
+        <v>96.3</v>
+      </c>
+      <c r="J39">
+        <v>38.51</v>
+      </c>
+      <c r="K39">
+        <v>37.29</v>
+      </c>
+      <c r="L39">
+        <v>9.32</v>
+      </c>
+      <c r="M39">
+        <v>21.52</v>
+      </c>
+      <c r="N39">
+        <v>42.57</v>
+      </c>
+      <c r="O39">
+        <v>36.69</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>42.286000000000016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>54.07</v>
+      </c>
+      <c r="B40">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="C40">
+        <v>37.72</v>
+      </c>
+      <c r="D40">
+        <v>57.69</v>
+      </c>
+      <c r="E40">
+        <v>43.03</v>
+      </c>
+      <c r="F40">
+        <v>29.43</v>
+      </c>
+      <c r="G40">
+        <v>61.85</v>
+      </c>
+      <c r="H40">
+        <v>56.47</v>
+      </c>
+      <c r="I40">
+        <v>46.2</v>
+      </c>
+      <c r="J40">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>33.75</v>
+      </c>
+      <c r="M40">
+        <v>19.66</v>
+      </c>
+      <c r="N40">
+        <v>23.61</v>
+      </c>
+      <c r="O40">
+        <v>33.35</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>41.792666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>63.61</v>
+      </c>
+      <c r="B41">
+        <v>27.42</v>
+      </c>
+      <c r="C41">
+        <v>50.53</v>
+      </c>
+      <c r="D41">
+        <v>65.52</v>
+      </c>
+      <c r="E41">
+        <v>42.39</v>
+      </c>
+      <c r="F41">
+        <v>51.49</v>
+      </c>
+      <c r="G41">
+        <v>10.26</v>
+      </c>
+      <c r="H41">
+        <v>81.05</v>
+      </c>
+      <c r="I41">
+        <v>60.85</v>
+      </c>
+      <c r="J41">
+        <v>64.31</v>
+      </c>
+      <c r="K41">
+        <v>60.13</v>
+      </c>
+      <c r="L41">
+        <v>74.22</v>
+      </c>
+      <c r="M41">
+        <v>27.48</v>
+      </c>
+      <c r="N41">
+        <v>16.39</v>
+      </c>
+      <c r="O41">
+        <v>17</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>47.510000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>62.35</v>
+      </c>
+      <c r="B42">
+        <v>19.38</v>
+      </c>
+      <c r="C42">
+        <v>34.67</v>
+      </c>
+      <c r="D42">
+        <v>20.3</v>
+      </c>
+      <c r="E42">
+        <v>30.75</v>
+      </c>
+      <c r="F42">
+        <v>40.46</v>
+      </c>
+      <c r="G42">
+        <v>42.58</v>
+      </c>
+      <c r="H42">
+        <v>64.22</v>
+      </c>
+      <c r="I42">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="J42">
+        <v>58.14</v>
+      </c>
+      <c r="K42">
+        <v>85.99</v>
+      </c>
+      <c r="L42">
+        <v>44.72</v>
+      </c>
+      <c r="M42">
+        <v>30.01</v>
+      </c>
+      <c r="N42">
+        <v>70.16</v>
+      </c>
+      <c r="O42">
+        <v>18.62</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>46.501999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>144.62</v>
+      </c>
+      <c r="B43">
+        <v>64.53</v>
+      </c>
+      <c r="C43">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="D43">
+        <v>63.32</v>
+      </c>
+      <c r="E43">
+        <v>30.58</v>
+      </c>
+      <c r="F43">
+        <v>48.25</v>
+      </c>
+      <c r="G43">
+        <v>31.72</v>
+      </c>
+      <c r="H43">
+        <v>13.59</v>
+      </c>
+      <c r="I43">
+        <v>15.74</v>
+      </c>
+      <c r="J43">
+        <v>20.72</v>
+      </c>
+      <c r="K43">
+        <v>108.52</v>
+      </c>
+      <c r="L43">
+        <v>13.25</v>
+      </c>
+      <c r="M43">
+        <v>7.6</v>
+      </c>
+      <c r="N43">
+        <v>65.41</v>
+      </c>
+      <c r="O43">
+        <v>30.15</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>49.054666666666662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>82.65</v>
+      </c>
+      <c r="B44">
+        <v>86.58</v>
+      </c>
+      <c r="C44">
+        <v>41.46</v>
+      </c>
+      <c r="D44">
+        <v>60.49</v>
+      </c>
+      <c r="E44">
+        <v>33.99</v>
+      </c>
+      <c r="F44">
+        <v>47.37</v>
+      </c>
+      <c r="G44">
+        <v>32.39</v>
+      </c>
+      <c r="H44">
+        <v>49.36</v>
+      </c>
+      <c r="I44">
+        <v>51.08</v>
+      </c>
+      <c r="J44">
+        <v>50.31</v>
+      </c>
+      <c r="K44">
+        <v>46.41</v>
+      </c>
+      <c r="L44">
+        <v>13.05</v>
+      </c>
+      <c r="M44">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N44">
+        <v>51.73</v>
+      </c>
+      <c r="O44">
+        <v>15.09</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>45.457333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45.4</v>
+      </c>
+      <c r="B45">
+        <v>117.39</v>
+      </c>
+      <c r="C45">
+        <v>57.62</v>
+      </c>
+      <c r="D45">
+        <v>61.59</v>
+      </c>
+      <c r="E45">
+        <v>43.1</v>
+      </c>
+      <c r="F45">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G45">
+        <v>26.21</v>
+      </c>
+      <c r="H45">
+        <v>52.51</v>
+      </c>
+      <c r="I45">
+        <v>5.36</v>
+      </c>
+      <c r="J45">
+        <v>24.25</v>
+      </c>
+      <c r="K45">
+        <v>72.67</v>
+      </c>
+      <c r="L45">
+        <v>31.95</v>
+      </c>
+      <c r="M45">
+        <v>41.81</v>
+      </c>
+      <c r="N45">
+        <v>45.53</v>
+      </c>
+      <c r="O45">
+        <v>25.34</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>45.961999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>178.19</v>
+      </c>
+      <c r="B46">
+        <v>160.72999999999999</v>
+      </c>
+      <c r="C46">
+        <v>13.33</v>
+      </c>
+      <c r="D46">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="E46">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="F46">
+        <v>42.72</v>
+      </c>
+      <c r="G46">
+        <v>83.88</v>
+      </c>
+      <c r="H46">
+        <v>50.81</v>
+      </c>
+      <c r="I46">
+        <v>83.72</v>
+      </c>
+      <c r="J46">
+        <v>64.36</v>
+      </c>
+      <c r="K46">
+        <v>94.93</v>
+      </c>
+      <c r="L46">
+        <v>35.68</v>
+      </c>
+      <c r="M46">
+        <v>59.08</v>
+      </c>
+      <c r="N46">
+        <v>41.85</v>
+      </c>
+      <c r="O46">
+        <v>49.15</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>67.441333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>90.75</v>
+      </c>
+      <c r="B47">
+        <v>57.77</v>
+      </c>
+      <c r="C47">
+        <v>40.82</v>
+      </c>
+      <c r="D47">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="E47">
+        <v>63.62</v>
+      </c>
+      <c r="F47">
+        <v>29.18</v>
+      </c>
+      <c r="G47">
+        <v>59.65</v>
+      </c>
+      <c r="H47">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="I47">
+        <v>51.5</v>
+      </c>
+      <c r="J47">
+        <v>41.5</v>
+      </c>
+      <c r="K47">
+        <v>76.8</v>
+      </c>
+      <c r="L47">
+        <v>46.77</v>
+      </c>
+      <c r="M47">
+        <v>49.53</v>
+      </c>
+      <c r="N47">
+        <v>52.62</v>
+      </c>
+      <c r="O47">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>55.219333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>52.59</v>
+      </c>
+      <c r="B48">
+        <v>26.68</v>
+      </c>
+      <c r="C48">
+        <v>59.23</v>
+      </c>
+      <c r="D48">
+        <v>123.35</v>
+      </c>
+      <c r="E48">
+        <v>37.6</v>
+      </c>
+      <c r="F48">
+        <v>22.05</v>
+      </c>
+      <c r="G48">
+        <v>31.65</v>
+      </c>
+      <c r="H48">
+        <v>43.19</v>
+      </c>
+      <c r="I48">
+        <v>18.45</v>
+      </c>
+      <c r="J48">
+        <v>60.1</v>
+      </c>
+      <c r="K48">
+        <v>73.62</v>
+      </c>
+      <c r="L48">
+        <v>49.22</v>
+      </c>
+      <c r="M48">
+        <v>51.95</v>
+      </c>
+      <c r="N48">
+        <v>15.53</v>
+      </c>
+      <c r="O48">
+        <v>12.67</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>45.192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>40.22</v>
+      </c>
+      <c r="B49">
+        <v>19.27</v>
+      </c>
+      <c r="C49">
+        <v>46.64</v>
+      </c>
+      <c r="D49">
+        <v>122.63</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>29.9</v>
+      </c>
+      <c r="G49">
+        <v>55.78</v>
+      </c>
+      <c r="H49">
+        <v>20.03</v>
+      </c>
+      <c r="I49">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="J49">
+        <v>63.84</v>
+      </c>
+      <c r="K49">
+        <v>32.76</v>
+      </c>
+      <c r="L49">
+        <v>83.59</v>
+      </c>
+      <c r="M49">
+        <v>37.93</v>
+      </c>
+      <c r="N49">
+        <v>28.23</v>
+      </c>
+      <c r="O49">
+        <v>18.54</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>44.481999999999992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>47.01</v>
+      </c>
+      <c r="C50">
+        <v>79.59</v>
+      </c>
+      <c r="D50">
+        <v>32.67</v>
+      </c>
+      <c r="E50">
+        <v>45.65</v>
+      </c>
+      <c r="F50">
+        <v>15.61</v>
+      </c>
+      <c r="G50">
+        <v>51</v>
+      </c>
+      <c r="H50">
+        <v>27.46</v>
+      </c>
+      <c r="I50">
+        <v>138.94</v>
+      </c>
+      <c r="J50">
+        <v>47.61</v>
+      </c>
+      <c r="K50">
+        <v>65.89</v>
+      </c>
+      <c r="L50">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="M50">
+        <v>23.89</v>
+      </c>
+      <c r="N50">
+        <v>20.88</v>
+      </c>
+      <c r="O50">
+        <v>36.56</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>50.829333333333324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>114.89</v>
+      </c>
+      <c r="B51">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="C51">
+        <v>36.56</v>
+      </c>
+      <c r="D51">
+        <v>57.08</v>
+      </c>
+      <c r="E51">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F51">
+        <v>60.9</v>
+      </c>
+      <c r="G51">
+        <v>102.76</v>
+      </c>
+      <c r="H51">
+        <v>42.36</v>
+      </c>
+      <c r="I51">
+        <v>132.13</v>
+      </c>
+      <c r="J51">
+        <v>74.38</v>
+      </c>
+      <c r="K51">
+        <v>25.1</v>
+      </c>
+      <c r="L51">
+        <v>46.31</v>
+      </c>
+      <c r="M51">
+        <v>31.48</v>
+      </c>
+      <c r="N51">
+        <v>47.45</v>
+      </c>
+      <c r="O51">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>60.927333333333323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>47.08</v>
+      </c>
+      <c r="B52">
+        <v>279.69</v>
+      </c>
+      <c r="C52">
+        <v>75.69</v>
+      </c>
+      <c r="D52">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E52">
+        <v>134.13</v>
+      </c>
+      <c r="F52">
+        <v>91.23</v>
+      </c>
+      <c r="G52">
+        <v>120.68</v>
+      </c>
+      <c r="H52">
+        <v>50.2</v>
+      </c>
+      <c r="I52">
+        <v>30.59</v>
+      </c>
+      <c r="J52">
+        <v>46.45</v>
+      </c>
+      <c r="K52">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="L52">
+        <v>59.15</v>
+      </c>
+      <c r="M52">
+        <v>83.43</v>
+      </c>
+      <c r="N52">
+        <v>10.36</v>
+      </c>
+      <c r="O52">
+        <v>60.9</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>82.694666666666677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>49.56</v>
+      </c>
+      <c r="B53">
+        <v>317.42</v>
+      </c>
+      <c r="C53">
+        <v>44.16</v>
+      </c>
+      <c r="D53">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="E53">
+        <v>97.34</v>
+      </c>
+      <c r="F53">
+        <v>95.74</v>
+      </c>
+      <c r="G53">
+        <v>99.09</v>
+      </c>
+      <c r="H53">
+        <v>22.71</v>
+      </c>
+      <c r="I53">
+        <v>58.31</v>
+      </c>
+      <c r="J53">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="K53">
+        <v>22.21</v>
+      </c>
+      <c r="L53">
+        <v>53.79</v>
+      </c>
+      <c r="M53">
+        <v>119.72</v>
+      </c>
+      <c r="N53">
+        <v>84.94</v>
+      </c>
+      <c r="O53">
+        <v>55.95</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>78.576666666666668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>121.45</v>
+      </c>
+      <c r="B54">
+        <v>127.54</v>
+      </c>
+      <c r="C54">
+        <v>24.19</v>
+      </c>
+      <c r="D54">
+        <v>27.7</v>
+      </c>
+      <c r="E54">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="F54">
+        <v>106.43</v>
+      </c>
+      <c r="G54">
+        <v>92.44</v>
+      </c>
+      <c r="H54">
+        <v>37.31</v>
+      </c>
+      <c r="I54">
+        <v>128.69</v>
+      </c>
+      <c r="J54">
+        <v>26.63</v>
+      </c>
+      <c r="K54">
+        <v>85.8</v>
+      </c>
+      <c r="L54">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="M54">
+        <v>118.74</v>
+      </c>
+      <c r="N54">
+        <v>83.78</v>
+      </c>
+      <c r="O54">
+        <v>21.81</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>76.357999999999976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>226.06</v>
+      </c>
+      <c r="B55">
+        <v>80.52</v>
+      </c>
+      <c r="C55">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D55">
+        <v>33.89</v>
+      </c>
+      <c r="E55">
+        <v>15.24</v>
+      </c>
+      <c r="F55">
+        <v>86.3</v>
+      </c>
+      <c r="G55">
+        <v>22.46</v>
+      </c>
+      <c r="H55">
+        <v>95.63</v>
+      </c>
+      <c r="I55">
+        <v>214.75</v>
+      </c>
+      <c r="J55">
+        <v>41.07</v>
+      </c>
+      <c r="K55">
+        <v>159.21</v>
+      </c>
+      <c r="L55">
+        <v>52.15</v>
+      </c>
+      <c r="M55">
+        <v>71.61</v>
+      </c>
+      <c r="N55">
+        <v>101.44</v>
+      </c>
+      <c r="O55">
+        <v>41.55</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>87.932000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>225.49</v>
+      </c>
+      <c r="B56">
+        <v>149.18</v>
+      </c>
+      <c r="C56">
+        <v>60.13</v>
+      </c>
+      <c r="D56">
+        <v>121.02</v>
+      </c>
+      <c r="E56">
+        <v>65.41</v>
+      </c>
+      <c r="F56">
+        <v>142.47</v>
+      </c>
+      <c r="G56">
+        <v>57.72</v>
+      </c>
+      <c r="H56">
+        <v>144.6</v>
+      </c>
+      <c r="I56">
+        <v>97.66</v>
+      </c>
+      <c r="J56">
+        <v>144.28</v>
+      </c>
+      <c r="K56">
+        <v>117.94</v>
+      </c>
+      <c r="L56">
+        <v>118.12</v>
+      </c>
+      <c r="M56">
+        <v>43.35</v>
+      </c>
+      <c r="N56">
+        <v>76.58</v>
+      </c>
+      <c r="O56">
+        <v>48.08</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>107.46866666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>47.78</v>
+      </c>
+      <c r="B57">
+        <v>165.34</v>
+      </c>
+      <c r="C57">
+        <v>131.13999999999999</v>
+      </c>
+      <c r="D57">
+        <v>122.66</v>
+      </c>
+      <c r="E57">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>95.6</v>
+      </c>
+      <c r="G57">
+        <v>42.5</v>
+      </c>
+      <c r="H57">
+        <v>127.41</v>
+      </c>
+      <c r="I57">
+        <v>22.45</v>
+      </c>
+      <c r="J57">
+        <v>38.19</v>
+      </c>
+      <c r="K57">
+        <v>125.78</v>
+      </c>
+      <c r="L57">
+        <v>143.6</v>
+      </c>
+      <c r="M57">
+        <v>71.88</v>
+      </c>
+      <c r="N57">
+        <v>108.26</v>
+      </c>
+      <c r="O57">
+        <v>48.67</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>90.550666666666672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>242.11</v>
+      </c>
+      <c r="B58">
+        <v>103.66</v>
+      </c>
+      <c r="C58">
+        <v>115.58</v>
+      </c>
+      <c r="D58">
+        <v>37.6</v>
+      </c>
+      <c r="E58">
+        <v>108.04</v>
+      </c>
+      <c r="F58">
+        <v>31.69</v>
+      </c>
+      <c r="G58">
+        <v>107.93</v>
+      </c>
+      <c r="H58">
+        <v>161.63999999999999</v>
+      </c>
+      <c r="I58">
+        <v>146.53</v>
+      </c>
+      <c r="J58">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="K58">
+        <v>66.34</v>
+      </c>
+      <c r="L58">
+        <v>127.62</v>
+      </c>
+      <c r="M58">
+        <v>136.37</v>
+      </c>
+      <c r="N58">
+        <v>82.64</v>
+      </c>
+      <c r="O58">
+        <v>43.43</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>109.44400000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86.97</v>
+      </c>
+      <c r="B59">
+        <v>25.59</v>
+      </c>
+      <c r="C59">
+        <v>68.67</v>
+      </c>
+      <c r="D59">
+        <v>111.32</v>
+      </c>
+      <c r="E59">
+        <v>164.06</v>
+      </c>
+      <c r="F59">
+        <v>60.5</v>
+      </c>
+      <c r="G59">
+        <v>47.56</v>
+      </c>
+      <c r="H59">
+        <v>131.97</v>
+      </c>
+      <c r="I59">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="J59">
+        <v>138.21</v>
+      </c>
+      <c r="K59">
+        <v>12.69</v>
+      </c>
+      <c r="L59">
+        <v>102.68</v>
+      </c>
+      <c r="M59">
+        <v>119.58</v>
+      </c>
+      <c r="N59">
+        <v>58.37</v>
+      </c>
+      <c r="O59">
+        <v>60.13</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>98.493333333333339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="B60">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="C60">
+        <v>56.87</v>
+      </c>
+      <c r="D60">
+        <v>118.62</v>
+      </c>
+      <c r="E60">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="F60">
+        <v>93.76</v>
+      </c>
+      <c r="G60">
+        <v>17.43</v>
+      </c>
+      <c r="H60">
+        <v>299.42</v>
+      </c>
+      <c r="I60">
+        <v>330.41</v>
+      </c>
+      <c r="J60">
+        <v>14.62</v>
+      </c>
+      <c r="K60">
+        <v>107.72</v>
+      </c>
+      <c r="L60">
+        <v>46.87</v>
+      </c>
+      <c r="M60">
+        <v>61.3</v>
+      </c>
+      <c r="N60">
+        <v>25.73</v>
+      </c>
+      <c r="O60">
+        <v>83.77</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>104.26466666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>184.68</v>
+      </c>
+      <c r="B61">
+        <v>94.59</v>
+      </c>
+      <c r="C61">
+        <v>64.52</v>
+      </c>
+      <c r="D61">
+        <v>22.89</v>
+      </c>
+      <c r="E61">
+        <v>285.86</v>
+      </c>
+      <c r="F61">
+        <v>44.54</v>
+      </c>
+      <c r="G61">
+        <v>162.9</v>
+      </c>
+      <c r="H61">
+        <v>398.75</v>
+      </c>
+      <c r="I61">
+        <v>450.53</v>
+      </c>
+      <c r="J61">
+        <v>58.81</v>
+      </c>
+      <c r="K61">
+        <v>121.97</v>
+      </c>
+      <c r="L61">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="M61">
+        <v>59.68</v>
+      </c>
+      <c r="N61">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="O61">
+        <v>148.65</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>149.21733333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>662</v>
+      </c>
+      <c r="B62">
+        <v>238.17</v>
+      </c>
+      <c r="C62">
+        <v>125.78</v>
+      </c>
+      <c r="D62">
+        <v>232.63</v>
+      </c>
+      <c r="E62">
+        <v>466.98</v>
+      </c>
+      <c r="F62">
+        <v>154.41</v>
+      </c>
+      <c r="G62">
+        <v>313.7</v>
+      </c>
+      <c r="H62">
+        <v>817.57</v>
+      </c>
+      <c r="I62">
+        <v>788.24</v>
+      </c>
+      <c r="J62">
+        <v>117.73</v>
+      </c>
+      <c r="K62">
+        <v>473.81</v>
+      </c>
+      <c r="L62">
+        <v>626.45000000000005</v>
+      </c>
+      <c r="M62">
+        <v>97.15</v>
+      </c>
+      <c r="N62">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="O62">
+        <v>174.8</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>370.36800000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1177.1300000000001</v>
+      </c>
+      <c r="B63">
+        <v>284.62</v>
+      </c>
+      <c r="C63">
+        <v>254.03</v>
+      </c>
+      <c r="D63">
+        <v>358.36</v>
+      </c>
+      <c r="E63">
+        <v>727.36</v>
+      </c>
+      <c r="F63">
+        <v>451.88</v>
+      </c>
+      <c r="G63">
+        <v>392.31</v>
+      </c>
+      <c r="H63">
+        <v>1313.76</v>
+      </c>
+      <c r="I63">
+        <v>1926.77</v>
+      </c>
+      <c r="J63">
+        <v>147.69</v>
+      </c>
+      <c r="K63">
+        <v>841.38</v>
+      </c>
+      <c r="L63">
+        <v>1191.92</v>
+      </c>
+      <c r="M63">
+        <v>449.78</v>
+      </c>
+      <c r="N63">
+        <v>292.79000000000002</v>
+      </c>
+      <c r="O63">
+        <v>295.57</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>673.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2220</v>
+      </c>
+      <c r="B64">
+        <v>2052.11</v>
+      </c>
+      <c r="C64">
+        <v>1774.64</v>
+      </c>
+      <c r="D64">
+        <v>1344.76</v>
+      </c>
+      <c r="E64">
+        <v>548.48</v>
+      </c>
+      <c r="F64">
+        <v>1348.05</v>
+      </c>
+      <c r="G64">
+        <v>1197.04</v>
+      </c>
+      <c r="H64">
+        <v>1885.17</v>
+      </c>
+      <c r="I64">
+        <v>3675.48</v>
+      </c>
+      <c r="J64">
+        <v>1353.49</v>
+      </c>
+      <c r="K64">
+        <v>2535.4699999999998</v>
+      </c>
+      <c r="L64">
+        <v>2074.56</v>
+      </c>
+      <c r="M64">
+        <v>1122.3399999999999</v>
+      </c>
+      <c r="N64">
+        <v>1525.38</v>
+      </c>
+      <c r="O64">
+        <v>567.09</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>1681.6040000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Projet/Calcul dB.xlsx
+++ b/Projet/Calcul dB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85e7673ddcb14ddb/Documents/PlatformIO/Projects/Reconnaissance-Vocale/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{C5547991-004F-4A95-8497-4855271336BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE7BA12-B2B4-492A-8390-7968E5D78F7C}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="8_{C5547991-004F-4A95-8497-4855271336BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE270465-DAE2-43CE-96C1-0BF4E9D1A241}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7140" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{922D7660-369A-4C6C-BD8E-AD8A21C21B19}"/>
   </bookViews>
@@ -7905,31 +7905,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Trois</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8182,7 +8157,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000000-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8402,7 +8377,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000001-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8622,7 +8597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000002-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8842,7 +8817,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000003-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9062,7 +9037,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000004-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9282,7 +9257,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000005-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9504,7 +9479,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000006-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9726,7 +9701,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000007-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9948,7 +9923,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000008-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10170,7 +10145,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{00000009-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10392,7 +10367,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{0000000A-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10614,7 +10589,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{0000000B-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10837,7 +10812,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{0000000C-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11060,7 +11035,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{0000000D-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11283,7 +11258,3346 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-06BF-4260-B080-47D0D0C7C018}"/>
+              <c16:uniqueId val="{0000000E-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$P$1:$P$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3704.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1572.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.01</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61.35</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.86</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.38</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148.76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>145.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76.53</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46.99</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>68.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.54</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1572.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$Q$1:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>9953.1299999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7769.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4456.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1195.6199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1153.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>283.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>171.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>141.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>151.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.97</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>129.07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>106.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.97</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>88.54</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>151.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>106.24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>155.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>151.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>171.42</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>176.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>122.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>214.88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>283.73</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>94.52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>301.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41.73</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>569.09</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1153.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1195.6199999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4456.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7769.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$R$1:$R$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5120.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2225.5300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56.87</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68.56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.78</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61.06</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>152.63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67.73</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>196.06</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>206.97</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>86.49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>92.42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>83.18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>116.04</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>151.56</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2225.5300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$S$1:$S$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>6526.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5525.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3632.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1775.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.55</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.72</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.86</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31.24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>195.78</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>505.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1775.47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3632.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5525.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$T$1:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4992.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4027.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2492.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1088.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31.42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.59</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73.42</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74.61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72.62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.67</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53.47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>63.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68.03</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>175.99</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>89.78</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1088.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2492.09</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4027.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$U$1:$U$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1572.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1064.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>489.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>218.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>157.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>118.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.31</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.93</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>104.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>112.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>129.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109.27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47.86</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>113.66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>157.66</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>198.35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>218.21</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>196.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>226.49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>233.14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>213.91</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>489.16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1064.4100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$V$1:$V$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>9568.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5139.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1532.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>253.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44.29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>109.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>108.13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98.07</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>66.56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66.39</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>116.37</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>145.84</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.77</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>105.66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>187.69</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>128.54</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>235.93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>185.86</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>253.15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1532.29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4097</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5139.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$W$1:$W$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>9473.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3655.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3637.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>499.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99.53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>128.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.69</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85.72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36.81</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>156.56</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>128.43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>200.24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>126.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.84</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>138.24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>77.91</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.84</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>320.89</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>499.22</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3637.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3655.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$X$1:$X$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1460.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>73.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>126.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>142.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>98.82</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>105.35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>101.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.97</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>242.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>155.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>66.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$Y$1:$Y$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>7249.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5846.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4061.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2100.4899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>842.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>263.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>142.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>114.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102.55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.72</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124.84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>124.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>125.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.87</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>114.54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>132.37</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>158.91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92.42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>142.69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>148.43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99.33</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>180.24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>183.45</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>86.48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>263.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>338.63</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>131.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>377.81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>842.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2100.4899999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4061.51</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5846.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$Z$1:$Z$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2477.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.01</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.77</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>69.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>141.12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>178.95</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83.46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>133.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125.47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>130.54</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>130.06</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>172.87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>146.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64.12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>226.52</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>297.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>872.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$AA$1:$AA$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>8706.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4992.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3450.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1582.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>509.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>225.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>216.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>113.82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.69</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>108.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>113.82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>128.51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216.97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>225.33</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57.07</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>109.58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>128.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90.17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>82.48</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>105.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66.45</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>104.56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>119.32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>230.33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>176.87</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>509.39</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>417.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1582.27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3450.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4992.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$AB$1:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2763.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1229.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>224.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>394.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.92</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.69</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.58</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>189.61</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>394.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>224.13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>74.28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>194.69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>112.18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>109.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>70.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>127.07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>111.34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120.86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1229.8900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$AC$1:$AC$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>7749.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2724.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2845.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1474.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>236.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>123.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.47</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.76</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101.72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.81</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>123.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>136.82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.81</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>194.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>203.56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>236.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>191.27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>77.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>269.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>164.71</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>256.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1474.12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2845.14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2724.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-FB70-4271-BB68-77520A1FC22B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>trois!$AD$1:$AD$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4485.393793103447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2498.8813793103454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1375.0451724137934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>662.88103448275865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247.73551724137934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.50344827586204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.09655172413794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.56724137931032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.11068965517239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.08241379310341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108.7910344827586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.264827586206891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102.83344827586205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.1210344827586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.502413793103457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.037241379310338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.148275862068971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.60896551724138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.692758620689659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.432758620689668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.843103448275855</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.331034482758618</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.798965517241371</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.786551724137929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.93586206896552</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.318620689655184</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.734137931034489</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.007241379310344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.634137931034488</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.605517241379317</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.068965517241381</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.833103448275857</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.068965517241381</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.605517241379317</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.634137931034488</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.007241379310344</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.734137931034489</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.318620689655184</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45.93586206896552</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.786551724137929</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.798965517241371</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57.331034482758618</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.843103448275855</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66.43241379310345</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61.693103448275856</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58.60896551724138</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59.148275862068971</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61.037241379310338</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75.502068965517239</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103.1210344827586</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>102.83344827586205</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88.264827586206891</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>108.79137931034481</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>127.08241379310341</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>102.11068965517239</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.56724137931033</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>120.09655172413794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>156.50344827586204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>247.73551724137934</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>662.88103448275865</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1375.044827586207</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2498.8803448275867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-FB70-4271-BB68-77520A1FC22B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11297,11 +14611,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1703358415"/>
-        <c:axId val="1703352591"/>
+        <c:axId val="1751642991"/>
+        <c:axId val="1751642159"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1703358415"/>
+        <c:axId val="1751642991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11343,7 +14657,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1703352591"/>
+        <c:crossAx val="1751642159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11351,7 +14665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1703352591"/>
+        <c:axId val="1751642159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11402,7 +14716,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1703358415"/>
+        <c:crossAx val="1751642991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11504,44 +14818,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Moyenne</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> trois</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35428455818022747"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11593,208 +14869,208 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>trois!$P$1:$P$64</c:f>
+              <c:f>trois!$AD$1:$AD$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>3250.5039999999999</c:v>
+                  <c:v>4485.393793103447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1681.6053333333336</c:v>
+                  <c:v>2498.8813793103454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>673.69066666666674</c:v>
+                  <c:v>1375.0451724137934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>370.36800000000005</c:v>
+                  <c:v>662.88103448275865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.21733333333336</c:v>
+                  <c:v>247.73551724137934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.26466666666666</c:v>
+                  <c:v>156.50344827586204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.493333333333339</c:v>
+                  <c:v>120.09655172413794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.44466666666668</c:v>
+                  <c:v>126.56724137931032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.550666666666672</c:v>
+                  <c:v>102.11068965517239</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.46866666666665</c:v>
+                  <c:v>127.08241379310341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.931333333333342</c:v>
+                  <c:v>108.7910344827586</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.357999999999976</c:v>
+                  <c:v>88.264827586206891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.576666666666668</c:v>
+                  <c:v>102.83344827586205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.694666666666677</c:v>
+                  <c:v>103.1210344827586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.92799999999999</c:v>
+                  <c:v>75.502413793103457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.829333333333324</c:v>
+                  <c:v>61.037241379310338</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.481999999999992</c:v>
+                  <c:v>59.148275862068971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.192</c:v>
+                  <c:v>58.60896551724138</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.219333333333331</c:v>
+                  <c:v>61.692758620689659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.441333333333333</c:v>
+                  <c:v>66.432758620689668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.961999999999996</c:v>
+                  <c:v>56.960000000000008</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45.457333333333331</c:v>
+                  <c:v>54.843103448275855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.054666666666662</c:v>
+                  <c:v>57.331034482758618</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.501999999999995</c:v>
+                  <c:v>53.798965517241371</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.510000000000005</c:v>
+                  <c:v>49.786551724137929</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.792666666666669</c:v>
+                  <c:v>45.93586206896552</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.286000000000016</c:v>
+                  <c:v>41.318620689655184</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.619333333333344</c:v>
+                  <c:v>46.734137931034489</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.655999999999999</c:v>
+                  <c:v>43.007241379310344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.718666666666664</c:v>
+                  <c:v>42.634137931034488</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.252000000000017</c:v>
+                  <c:v>40.605517241379317</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.376666666666658</c:v>
+                  <c:v>43.068965517241381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>48.498666666666658</c:v>
+                  <c:v>42.833103448275857</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.376666666666658</c:v>
+                  <c:v>43.068965517241381</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36.252000000000017</c:v>
+                  <c:v>40.605517241379317</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33.718666666666664</c:v>
+                  <c:v>42.634137931034488</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.655999999999999</c:v>
+                  <c:v>43.007241379310344</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.619333333333344</c:v>
+                  <c:v>46.734137931034489</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.286000000000016</c:v>
+                  <c:v>41.318620689655184</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.792666666666669</c:v>
+                  <c:v>45.93586206896552</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.510000000000005</c:v>
+                  <c:v>49.786551724137929</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>46.501999999999995</c:v>
+                  <c:v>53.798965517241371</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.054666666666662</c:v>
+                  <c:v>57.331034482758618</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45.457333333333331</c:v>
+                  <c:v>54.843103448275855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.961999999999996</c:v>
+                  <c:v>56.960000000000008</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67.441333333333333</c:v>
+                  <c:v>66.43241379310345</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>55.219333333333331</c:v>
+                  <c:v>61.693103448275856</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.192</c:v>
+                  <c:v>58.60896551724138</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44.481999999999992</c:v>
+                  <c:v>59.148275862068971</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.829333333333324</c:v>
+                  <c:v>61.037241379310338</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>60.927333333333323</c:v>
+                  <c:v>75.502068965517239</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>82.694666666666677</c:v>
+                  <c:v>103.1210344827586</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>78.576666666666668</c:v>
+                  <c:v>102.83344827586205</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>76.357999999999976</c:v>
+                  <c:v>88.264827586206891</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>87.932000000000002</c:v>
+                  <c:v>108.79137931034481</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>107.46866666666665</c:v>
+                  <c:v>127.08241379310341</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>90.550666666666672</c:v>
+                  <c:v>102.11068965517239</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>109.44400000000002</c:v>
+                  <c:v>126.56724137931033</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>98.493333333333339</c:v>
+                  <c:v>120.09655172413794</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>104.26466666666666</c:v>
+                  <c:v>156.50344827586204</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>149.21733333333336</c:v>
+                  <c:v>247.73551724137934</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>370.36800000000005</c:v>
+                  <c:v>662.88103448275865</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>673.69</c:v>
+                  <c:v>1375.044827586207</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1681.6040000000003</c:v>
+                  <c:v>2498.8803448275867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC1A-467F-BB08-F0C40E4DD05D}"/>
+              <c16:uniqueId val="{00000000-4242-437D-90C9-FABFFDE75430}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11808,11 +15084,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1528926175"/>
-        <c:axId val="1528927007"/>
+        <c:axId val="1754707551"/>
+        <c:axId val="1754707967"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1528926175"/>
+        <c:axId val="1754707551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11854,7 +15130,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1528927007"/>
+        <c:crossAx val="1754707967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11862,7 +15138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1528927007"/>
+        <c:axId val="1754707967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11913,7 +15189,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1528926175"/>
+        <c:crossAx val="1754707551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29522,23 +32798,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>131762</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419325D8-0950-C4DB-459E-893503856B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9999FE-3F60-BA88-4A85-58C838CE258A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29558,23 +32834,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>179387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF247D8-223D-B973-3BC8-54C247C2E91E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCB8394-4C4F-4DB6-5DBA-2F7025598D3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47534,15 +50810,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75285CBC-C4BD-4E1E-8D39-2254A7830E2A}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5739.77</v>
       </c>
@@ -47589,11 +50865,53 @@
         <v>1110.28</v>
       </c>
       <c r="P1">
-        <f>AVERAGE(A1:O1)</f>
-        <v>3250.5039999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3704.3</v>
+      </c>
+      <c r="Q1">
+        <v>9953.1299999999992</v>
+      </c>
+      <c r="R1">
+        <v>5120.41</v>
+      </c>
+      <c r="S1">
+        <v>6526.92</v>
+      </c>
+      <c r="T1">
+        <v>4992.51</v>
+      </c>
+      <c r="U1">
+        <v>1572.01</v>
+      </c>
+      <c r="V1">
+        <v>9568.59</v>
+      </c>
+      <c r="W1">
+        <v>9473.32</v>
+      </c>
+      <c r="X1">
+        <v>1460.51</v>
+      </c>
+      <c r="Y1">
+        <v>7249.91</v>
+      </c>
+      <c r="Z1">
+        <v>2477.2199999999998</v>
+      </c>
+      <c r="AA1">
+        <v>8706.36</v>
+      </c>
+      <c r="AB1">
+        <v>2763.86</v>
+      </c>
+      <c r="AC1">
+        <v>7749.81</v>
+      </c>
+      <c r="AD1">
+        <f>AVERAGE(A1:AC1)</f>
+        <v>4485.393793103447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2220</v>
       </c>
@@ -47640,11 +50958,53 @@
         <v>567.09</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P64" si="0">AVERAGE(A2:O2)</f>
-        <v>1681.6053333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1572.2</v>
+      </c>
+      <c r="Q2">
+        <v>7769.71</v>
+      </c>
+      <c r="R2">
+        <v>2225.5300000000002</v>
+      </c>
+      <c r="S2">
+        <v>5525.72</v>
+      </c>
+      <c r="T2">
+        <v>4027.04</v>
+      </c>
+      <c r="U2">
+        <v>1064.4100000000001</v>
+      </c>
+      <c r="V2">
+        <v>5139.21</v>
+      </c>
+      <c r="W2">
+        <v>3655.43</v>
+      </c>
+      <c r="X2">
+        <v>598</v>
+      </c>
+      <c r="Y2">
+        <v>5846.61</v>
+      </c>
+      <c r="Z2">
+        <v>872.97</v>
+      </c>
+      <c r="AA2">
+        <v>4992.05</v>
+      </c>
+      <c r="AB2">
+        <v>1229.8900000000001</v>
+      </c>
+      <c r="AC2">
+        <v>2724.71</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AD64" si="0">AVERAGE(A2:AC2)</f>
+        <v>2498.8813793103454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1177.1300000000001</v>
       </c>
@@ -47691,11 +51051,53 @@
         <v>295.57</v>
       </c>
       <c r="P3">
+        <v>24.71</v>
+      </c>
+      <c r="Q3">
+        <v>4456.7299999999996</v>
+      </c>
+      <c r="R3">
+        <v>151.56</v>
+      </c>
+      <c r="S3">
+        <v>3632.1</v>
+      </c>
+      <c r="T3">
+        <v>2492.09</v>
+      </c>
+      <c r="U3">
+        <v>489.16</v>
+      </c>
+      <c r="V3">
+        <v>4097</v>
+      </c>
+      <c r="W3">
+        <v>3637.88</v>
+      </c>
+      <c r="X3">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="Y3">
+        <v>4061.51</v>
+      </c>
+      <c r="Z3">
+        <v>297.97000000000003</v>
+      </c>
+      <c r="AA3">
+        <v>3450.4</v>
+      </c>
+      <c r="AB3">
+        <v>68.16</v>
+      </c>
+      <c r="AC3">
+        <v>2845.14</v>
+      </c>
+      <c r="AD3">
         <f t="shared" si="0"/>
-        <v>673.69066666666674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1375.0451724137934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>662</v>
       </c>
@@ -47742,11 +51144,53 @@
         <v>174.8</v>
       </c>
       <c r="P4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>1195.6199999999999</v>
+      </c>
+      <c r="R4">
+        <v>116.04</v>
+      </c>
+      <c r="S4">
+        <v>1775.47</v>
+      </c>
+      <c r="T4">
+        <v>1088.2</v>
+      </c>
+      <c r="U4">
+        <v>213.91</v>
+      </c>
+      <c r="V4">
+        <v>1532.29</v>
+      </c>
+      <c r="W4">
+        <v>2068</v>
+      </c>
+      <c r="X4">
+        <v>155.13999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>2100.4899999999998</v>
+      </c>
+      <c r="Z4">
+        <v>226.52</v>
+      </c>
+      <c r="AA4">
+        <v>1582.27</v>
+      </c>
+      <c r="AB4">
+        <v>120.86</v>
+      </c>
+      <c r="AC4">
+        <v>1474.12</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="0"/>
-        <v>370.36800000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>662.88103448275865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>184.68</v>
       </c>
@@ -47793,11 +51237,53 @@
         <v>148.65</v>
       </c>
       <c r="P5">
+        <v>26.54</v>
+      </c>
+      <c r="Q5">
+        <v>1153.19</v>
+      </c>
+      <c r="R5">
+        <v>83.18</v>
+      </c>
+      <c r="S5">
+        <v>505.1</v>
+      </c>
+      <c r="T5">
+        <v>258</v>
+      </c>
+      <c r="U5">
+        <v>233.14</v>
+      </c>
+      <c r="V5">
+        <v>253.15</v>
+      </c>
+      <c r="W5">
+        <v>499.22</v>
+      </c>
+      <c r="X5">
+        <v>242.83</v>
+      </c>
+      <c r="Y5">
+        <v>842.19</v>
+      </c>
+      <c r="Z5">
+        <v>64.12</v>
+      </c>
+      <c r="AA5">
+        <v>417.61</v>
+      </c>
+      <c r="AB5">
+        <v>111.34</v>
+      </c>
+      <c r="AC5">
+        <v>256.45999999999998</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="0"/>
-        <v>149.21733333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>247.73551724137934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>156.44999999999999</v>
       </c>
@@ -47844,11 +51330,53 @@
         <v>83.77</v>
       </c>
       <c r="P6">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>569.09</v>
+      </c>
+      <c r="R6">
+        <v>50.94</v>
+      </c>
+      <c r="S6">
+        <v>93.73</v>
+      </c>
+      <c r="T6">
+        <v>89.78</v>
+      </c>
+      <c r="U6">
+        <v>226.49</v>
+      </c>
+      <c r="V6">
+        <v>185.86</v>
+      </c>
+      <c r="W6">
+        <v>320.89</v>
+      </c>
+      <c r="X6">
+        <v>82.97</v>
+      </c>
+      <c r="Y6">
+        <v>377.81</v>
+      </c>
+      <c r="Z6">
+        <v>146.94999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>509.39</v>
+      </c>
+      <c r="AB6">
+        <v>127.07</v>
+      </c>
+      <c r="AC6">
+        <v>156</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="0"/>
-        <v>104.26466666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>156.50344827586204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>86.97</v>
       </c>
@@ -47895,11 +51423,53 @@
         <v>60.13</v>
       </c>
       <c r="P7">
+        <v>65.42</v>
+      </c>
+      <c r="Q7">
+        <v>41.73</v>
+      </c>
+      <c r="R7">
+        <v>81.849999999999994</v>
+      </c>
+      <c r="S7">
+        <v>195.78</v>
+      </c>
+      <c r="T7">
+        <v>175.99</v>
+      </c>
+      <c r="U7">
+        <v>196.72</v>
+      </c>
+      <c r="V7">
+        <v>235.93</v>
+      </c>
+      <c r="W7">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="X7">
+        <v>101.21</v>
+      </c>
+      <c r="Y7">
+        <v>131.91999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>172.87</v>
+      </c>
+      <c r="AA7">
+        <v>233.32</v>
+      </c>
+      <c r="AB7">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="AC7">
+        <v>164.71</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="0"/>
-        <v>98.493333333333339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>120.09655172413794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>242.11</v>
       </c>
@@ -47946,11 +51516,53 @@
         <v>43.43</v>
       </c>
       <c r="P8">
+        <v>68.25</v>
+      </c>
+      <c r="Q8">
+        <v>301.12</v>
+      </c>
+      <c r="R8">
+        <v>92.42</v>
+      </c>
+      <c r="S8">
+        <v>181.5</v>
+      </c>
+      <c r="T8">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="U8">
+        <v>218.21</v>
+      </c>
+      <c r="V8">
+        <v>122.49</v>
+      </c>
+      <c r="W8">
+        <v>28.84</v>
+      </c>
+      <c r="X8">
+        <v>56.35</v>
+      </c>
+      <c r="Y8">
+        <v>338.62</v>
+      </c>
+      <c r="Z8">
+        <v>130.06</v>
+      </c>
+      <c r="AA8">
+        <v>16.12</v>
+      </c>
+      <c r="AB8">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AC8">
+        <v>269.5</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="0"/>
-        <v>109.44466666666668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>126.56724137931032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>47.78</v>
       </c>
@@ -47997,11 +51609,53 @@
         <v>48.67</v>
       </c>
       <c r="P9">
+        <v>46.99</v>
+      </c>
+      <c r="Q9">
+        <v>94.52</v>
+      </c>
+      <c r="R9">
+        <v>86.49</v>
+      </c>
+      <c r="S9">
+        <v>39.44</v>
+      </c>
+      <c r="T9">
+        <v>68.03</v>
+      </c>
+      <c r="U9">
+        <v>198.35</v>
+      </c>
+      <c r="V9">
+        <v>128.54</v>
+      </c>
+      <c r="W9">
+        <v>77.91</v>
+      </c>
+      <c r="X9">
+        <v>105.35</v>
+      </c>
+      <c r="Y9">
+        <v>263.08999999999997</v>
+      </c>
+      <c r="Z9">
+        <v>130.54</v>
+      </c>
+      <c r="AA9">
+        <v>176.87</v>
+      </c>
+      <c r="AB9">
+        <v>109.34</v>
+      </c>
+      <c r="AC9">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="0"/>
-        <v>90.550666666666672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>102.11068965517239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>225.49</v>
       </c>
@@ -48048,11 +51702,53 @@
         <v>48.08</v>
       </c>
       <c r="P10">
+        <v>76.53</v>
+      </c>
+      <c r="Q10">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="R10">
+        <v>206.97</v>
+      </c>
+      <c r="S10">
+        <v>64.58</v>
+      </c>
+      <c r="T10">
+        <v>63.45</v>
+      </c>
+      <c r="U10">
+        <v>157.66</v>
+      </c>
+      <c r="V10">
+        <v>187.69</v>
+      </c>
+      <c r="W10">
+        <v>138.24</v>
+      </c>
+      <c r="X10">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="Y10">
+        <v>174.02</v>
+      </c>
+      <c r="Z10">
+        <v>125.47</v>
+      </c>
+      <c r="AA10">
+        <v>230.33</v>
+      </c>
+      <c r="AB10">
+        <v>112.18</v>
+      </c>
+      <c r="AC10">
+        <v>191.27</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="0"/>
-        <v>107.46866666666665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>127.08241379310341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>226.06</v>
       </c>
@@ -48099,11 +51795,53 @@
         <v>41.54</v>
       </c>
       <c r="P11">
+        <v>145.54</v>
+      </c>
+      <c r="Q11">
+        <v>283.73</v>
+      </c>
+      <c r="R11">
+        <v>196.06</v>
+      </c>
+      <c r="S11">
+        <v>86.58</v>
+      </c>
+      <c r="T11">
+        <v>53.47</v>
+      </c>
+      <c r="U11">
+        <v>113.66</v>
+      </c>
+      <c r="V11">
+        <v>105.66</v>
+      </c>
+      <c r="W11">
+        <v>58.84</v>
+      </c>
+      <c r="X11">
+        <v>28.6</v>
+      </c>
+      <c r="Y11">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="Z11">
+        <v>133.47999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>119.32</v>
+      </c>
+      <c r="AB11">
+        <v>194.69</v>
+      </c>
+      <c r="AC11">
+        <v>236.6</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="0"/>
-        <v>87.931333333333342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>108.7910344827586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>121.45</v>
       </c>
@@ -48150,11 +51888,53 @@
         <v>21.81</v>
       </c>
       <c r="P12">
+        <v>148.76</v>
+      </c>
+      <c r="Q12">
+        <v>92.16</v>
+      </c>
+      <c r="R12">
+        <v>67.73</v>
+      </c>
+      <c r="S12">
+        <v>90.8</v>
+      </c>
+      <c r="T12">
+        <v>75.67</v>
+      </c>
+      <c r="U12">
+        <v>47.86</v>
+      </c>
+      <c r="V12">
+        <v>113.77</v>
+      </c>
+      <c r="W12">
+        <v>126.4</v>
+      </c>
+      <c r="X12">
+        <v>98.82</v>
+      </c>
+      <c r="Y12">
+        <v>86.48</v>
+      </c>
+      <c r="Z12">
+        <v>83.46</v>
+      </c>
+      <c r="AA12">
+        <v>104.56</v>
+      </c>
+      <c r="AB12">
+        <v>74.28</v>
+      </c>
+      <c r="AC12">
+        <v>203.56</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="0"/>
-        <v>76.357999999999976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>88.264827586206891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>49.56</v>
       </c>
@@ -48201,11 +51981,53 @@
         <v>55.95</v>
       </c>
       <c r="P13">
+        <v>18.38</v>
+      </c>
+      <c r="Q13">
+        <v>214.88</v>
+      </c>
+      <c r="R13">
+        <v>152.63</v>
+      </c>
+      <c r="S13">
+        <v>72.709999999999994</v>
+      </c>
+      <c r="T13">
+        <v>72.62</v>
+      </c>
+      <c r="U13">
+        <v>48.12</v>
+      </c>
+      <c r="V13">
+        <v>145.84</v>
+      </c>
+      <c r="W13">
+        <v>200.24</v>
+      </c>
+      <c r="X13">
+        <v>142.83000000000001</v>
+      </c>
+      <c r="Y13">
+        <v>183.45</v>
+      </c>
+      <c r="Z13">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="AA13">
+        <v>66.45</v>
+      </c>
+      <c r="AB13">
+        <v>224.13</v>
+      </c>
+      <c r="AC13">
+        <v>194.25</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="0"/>
-        <v>78.576666666666668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>102.83344827586205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>47.08</v>
       </c>
@@ -48252,11 +52074,53 @@
         <v>60.9</v>
       </c>
       <c r="P14">
+        <v>33.53</v>
+      </c>
+      <c r="Q14">
+        <v>122.38</v>
+      </c>
+      <c r="R14">
+        <v>59.24</v>
+      </c>
+      <c r="S14">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="T14">
+        <v>47.02</v>
+      </c>
+      <c r="U14">
+        <v>109.27</v>
+      </c>
+      <c r="V14">
+        <v>116.37</v>
+      </c>
+      <c r="W14">
+        <v>128.43</v>
+      </c>
+      <c r="X14">
+        <v>126.6</v>
+      </c>
+      <c r="Y14">
+        <v>180.24</v>
+      </c>
+      <c r="Z14">
+        <v>178.95</v>
+      </c>
+      <c r="AA14">
+        <v>105.99</v>
+      </c>
+      <c r="AB14">
+        <v>394.2</v>
+      </c>
+      <c r="AC14">
+        <v>127.81</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="0"/>
-        <v>82.694666666666677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>103.1210344827586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114.89</v>
       </c>
@@ -48303,11 +52167,53 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="P15">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="Q15">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="R15">
+        <v>83.08</v>
+      </c>
+      <c r="S15">
+        <v>7.04</v>
+      </c>
+      <c r="T15">
+        <v>46.9</v>
+      </c>
+      <c r="U15">
+        <v>129.05000000000001</v>
+      </c>
+      <c r="V15">
+        <v>66.39</v>
+      </c>
+      <c r="W15">
+        <v>156.56</v>
+      </c>
+      <c r="X15">
+        <v>76.19</v>
+      </c>
+      <c r="Y15">
+        <v>99.33</v>
+      </c>
+      <c r="Z15">
+        <v>141.12</v>
+      </c>
+      <c r="AA15">
+        <v>82.48</v>
+      </c>
+      <c r="AB15">
+        <v>189.61</v>
+      </c>
+      <c r="AC15">
+        <v>85.21</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="0"/>
-        <v>60.92799999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75.502413793103457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>49</v>
       </c>
@@ -48354,11 +52260,53 @@
         <v>36.56</v>
       </c>
       <c r="P16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="Q16">
+        <v>176.18</v>
+      </c>
+      <c r="R16">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="S16">
+        <v>31.24</v>
+      </c>
+      <c r="T16">
+        <v>72.040000000000006</v>
+      </c>
+      <c r="U16">
+        <v>112.7</v>
+      </c>
+      <c r="V16">
+        <v>66.56</v>
+      </c>
+      <c r="W16">
+        <v>36.81</v>
+      </c>
+      <c r="X16">
+        <v>10.73</v>
+      </c>
+      <c r="Y16">
+        <v>148.43</v>
+      </c>
+      <c r="Z16">
+        <v>30.4</v>
+      </c>
+      <c r="AA16">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>31.35</v>
+      </c>
+      <c r="AC16">
+        <v>68.98</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="0"/>
-        <v>50.829333333333324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61.037241379310338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>40.22</v>
       </c>
@@ -48405,11 +52353,53 @@
         <v>18.54</v>
       </c>
       <c r="P17">
+        <v>38.81</v>
+      </c>
+      <c r="Q17">
+        <v>171.42</v>
+      </c>
+      <c r="R17">
+        <v>61.06</v>
+      </c>
+      <c r="S17">
+        <v>57.86</v>
+      </c>
+      <c r="T17">
+        <v>74.61</v>
+      </c>
+      <c r="U17">
+        <v>118.61</v>
+      </c>
+      <c r="V17">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="W17">
+        <v>85.72</v>
+      </c>
+      <c r="X17">
+        <v>25.95</v>
+      </c>
+      <c r="Y17">
+        <v>142.69</v>
+      </c>
+      <c r="Z17">
+        <v>27.11</v>
+      </c>
+      <c r="AA17">
+        <v>90.17</v>
+      </c>
+      <c r="AB17">
+        <v>13.99</v>
+      </c>
+      <c r="AC17">
+        <v>60.39</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="0"/>
-        <v>44.481999999999992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>59.148275862068971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>52.59</v>
       </c>
@@ -48456,11 +52446,53 @@
         <v>12.67</v>
       </c>
       <c r="P18">
+        <v>57.86</v>
+      </c>
+      <c r="Q18">
+        <v>71.61</v>
+      </c>
+      <c r="R18">
+        <v>55.78</v>
+      </c>
+      <c r="S18">
+        <v>52.45</v>
+      </c>
+      <c r="T18">
+        <v>73.42</v>
+      </c>
+      <c r="U18">
+        <v>104.64</v>
+      </c>
+      <c r="V18">
+        <v>98.07</v>
+      </c>
+      <c r="W18">
+        <v>91.69</v>
+      </c>
+      <c r="X18">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Y18">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="Z18">
+        <v>24.15</v>
+      </c>
+      <c r="AA18">
+        <v>87.95</v>
+      </c>
+      <c r="AB18">
+        <v>23.58</v>
+      </c>
+      <c r="AC18">
+        <v>136.82</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="0"/>
-        <v>45.192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>58.60896551724138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90.75</v>
       </c>
@@ -48507,11 +52539,53 @@
         <v>32.340000000000003</v>
       </c>
       <c r="P19">
+        <v>61.35</v>
+      </c>
+      <c r="Q19">
+        <v>151.47999999999999</v>
+      </c>
+      <c r="R19">
+        <v>86.31</v>
+      </c>
+      <c r="S19">
+        <v>48.65</v>
+      </c>
+      <c r="T19">
+        <v>55.71</v>
+      </c>
+      <c r="U19">
+        <v>52.4</v>
+      </c>
+      <c r="V19">
+        <v>45.32</v>
+      </c>
+      <c r="W19">
+        <v>78.56</v>
+      </c>
+      <c r="X19">
+        <v>10.71</v>
+      </c>
+      <c r="Y19">
+        <v>92.41</v>
+      </c>
+      <c r="Z19">
+        <v>10.51</v>
+      </c>
+      <c r="AA19">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>41.99</v>
+      </c>
+      <c r="AC19">
+        <v>97.13</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="0"/>
-        <v>55.219333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61.692758620689659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>178.19</v>
       </c>
@@ -48558,11 +52632,53 @@
         <v>49.15</v>
       </c>
       <c r="P20">
+        <v>62.7</v>
+      </c>
+      <c r="Q20">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="R20">
+        <v>45.56</v>
+      </c>
+      <c r="S20">
+        <v>43.46</v>
+      </c>
+      <c r="T20">
+        <v>31.59</v>
+      </c>
+      <c r="U20">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="V20">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="W20">
+        <v>58.7</v>
+      </c>
+      <c r="X20">
+        <v>72.14</v>
+      </c>
+      <c r="Y20">
+        <v>158.91</v>
+      </c>
+      <c r="Z20">
+        <v>23.14</v>
+      </c>
+      <c r="AA20">
+        <v>64.5</v>
+      </c>
+      <c r="AB20">
+        <v>35.1</v>
+      </c>
+      <c r="AC20">
+        <v>123.46</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="0"/>
-        <v>67.441333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.432758620689668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>45.4</v>
       </c>
@@ -48609,11 +52725,53 @@
         <v>25.34</v>
       </c>
       <c r="P21">
+        <v>98.26</v>
+      </c>
+      <c r="Q21">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="R21">
+        <v>21.6</v>
+      </c>
+      <c r="S21">
+        <v>18.72</v>
+      </c>
+      <c r="T21">
+        <v>22.11</v>
+      </c>
+      <c r="U21">
+        <v>46.25</v>
+      </c>
+      <c r="V21">
+        <v>23.88</v>
+      </c>
+      <c r="W21">
+        <v>128.09</v>
+      </c>
+      <c r="X21">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="Y21">
+        <v>132.37</v>
+      </c>
+      <c r="Z21">
+        <v>57.9</v>
+      </c>
+      <c r="AA21">
+        <v>109.58</v>
+      </c>
+      <c r="AB21">
+        <v>28.19</v>
+      </c>
+      <c r="AC21">
+        <v>45.81</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="0"/>
-        <v>45.961999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>56.960000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>82.65</v>
       </c>
@@ -48660,11 +52818,53 @@
         <v>15.09</v>
       </c>
       <c r="P22">
+        <v>100.86</v>
+      </c>
+      <c r="Q22">
+        <v>106.24</v>
+      </c>
+      <c r="R22">
+        <v>46.78</v>
+      </c>
+      <c r="S22">
+        <v>41.05</v>
+      </c>
+      <c r="T22">
+        <v>2.15</v>
+      </c>
+      <c r="U22">
+        <v>51.18</v>
+      </c>
+      <c r="V22">
+        <v>53.3</v>
+      </c>
+      <c r="W22">
+        <v>99.53</v>
+      </c>
+      <c r="X22">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="Y22">
+        <v>114.54</v>
+      </c>
+      <c r="Z22">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="AA22">
+        <v>57.07</v>
+      </c>
+      <c r="AB22">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="AC22">
+        <v>82.48</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="0"/>
-        <v>45.457333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>54.843103448275855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>144.62</v>
       </c>
@@ -48711,11 +52911,53 @@
         <v>30.15</v>
       </c>
       <c r="P23">
+        <v>52.8</v>
+      </c>
+      <c r="Q23">
+        <v>151.83000000000001</v>
+      </c>
+      <c r="R23">
+        <v>12.11</v>
+      </c>
+      <c r="S23">
+        <v>10.85</v>
+      </c>
+      <c r="T23">
+        <v>21.99</v>
+      </c>
+      <c r="U23">
+        <v>20.72</v>
+      </c>
+      <c r="V23">
+        <v>108.13</v>
+      </c>
+      <c r="W23">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="X23">
+        <v>40.75</v>
+      </c>
+      <c r="Y23">
+        <v>32</v>
+      </c>
+      <c r="Z23">
+        <v>52.77</v>
+      </c>
+      <c r="AA23">
+        <v>225.33</v>
+      </c>
+      <c r="AB23">
+        <v>30.6</v>
+      </c>
+      <c r="AC23">
+        <v>87.25</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="0"/>
-        <v>49.054666666666662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57.331034482758618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>62.35</v>
       </c>
@@ -48762,11 +53004,53 @@
         <v>18.62</v>
       </c>
       <c r="P24">
+        <v>40.25</v>
+      </c>
+      <c r="Q24">
+        <v>88.54</v>
+      </c>
+      <c r="R24">
+        <v>10.71</v>
+      </c>
+      <c r="S24">
+        <v>34.14</v>
+      </c>
+      <c r="T24">
+        <v>19.38</v>
+      </c>
+      <c r="U24">
+        <v>17.93</v>
+      </c>
+      <c r="V24">
+        <v>109.49</v>
+      </c>
+      <c r="W24">
+        <v>90.39</v>
+      </c>
+      <c r="X24">
+        <v>28.97</v>
+      </c>
+      <c r="Y24">
+        <v>47.87</v>
+      </c>
+      <c r="Z24">
+        <v>13.44</v>
+      </c>
+      <c r="AA24">
+        <v>216.97</v>
+      </c>
+      <c r="AB24">
+        <v>42.84</v>
+      </c>
+      <c r="AC24">
+        <v>101.72</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="0"/>
-        <v>46.501999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>53.798965517241371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>63.61</v>
       </c>
@@ -48813,11 +53097,53 @@
         <v>17</v>
       </c>
       <c r="P25">
+        <v>45.52</v>
+      </c>
+      <c r="Q25">
+        <v>52.97</v>
+      </c>
+      <c r="R25">
+        <v>36.75</v>
+      </c>
+      <c r="S25">
+        <v>37.32</v>
+      </c>
+      <c r="T25">
+        <v>31.42</v>
+      </c>
+      <c r="U25">
+        <v>25.12</v>
+      </c>
+      <c r="V25">
+        <v>63.54</v>
+      </c>
+      <c r="W25">
+        <v>44.34</v>
+      </c>
+      <c r="X25">
+        <v>29.54</v>
+      </c>
+      <c r="Y25">
+        <v>133.38999999999999</v>
+      </c>
+      <c r="Z25">
+        <v>29.71</v>
+      </c>
+      <c r="AA25">
+        <v>104.53</v>
+      </c>
+      <c r="AB25">
+        <v>36.39</v>
+      </c>
+      <c r="AC25">
+        <v>60.62</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="0"/>
-        <v>47.510000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>49.786551724137929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>54.07</v>
       </c>
@@ -48864,11 +53190,53 @@
         <v>33.35</v>
       </c>
       <c r="P26">
+        <v>42.22</v>
+      </c>
+      <c r="Q26">
+        <v>106.29</v>
+      </c>
+      <c r="R26">
+        <v>20.45</v>
+      </c>
+      <c r="S26">
+        <v>56.86</v>
+      </c>
+      <c r="T26">
+        <v>19.04</v>
+      </c>
+      <c r="U26">
+        <v>31.74</v>
+      </c>
+      <c r="V26">
+        <v>85.95</v>
+      </c>
+      <c r="W26">
+        <v>18.54</v>
+      </c>
+      <c r="X26">
+        <v>7.72</v>
+      </c>
+      <c r="Y26">
+        <v>90.21</v>
+      </c>
+      <c r="Z26">
+        <v>22.63</v>
+      </c>
+      <c r="AA26">
+        <v>128.51</v>
+      </c>
+      <c r="AB26">
+        <v>53.23</v>
+      </c>
+      <c r="AC26">
+        <v>21.86</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="0"/>
-        <v>41.792666666666669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45.93586206896552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>50.59</v>
       </c>
@@ -48915,11 +53283,53 @@
         <v>36.69</v>
       </c>
       <c r="P27">
+        <v>43.01</v>
+      </c>
+      <c r="Q27">
+        <v>57.6</v>
+      </c>
+      <c r="R27">
+        <v>68.56</v>
+      </c>
+      <c r="S27">
+        <v>40.72</v>
+      </c>
+      <c r="T27">
+        <v>10.08</v>
+      </c>
+      <c r="U27">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="V27">
+        <v>44.29</v>
+      </c>
+      <c r="W27">
+        <v>10.23</v>
+      </c>
+      <c r="X27">
+        <v>12.38</v>
+      </c>
+      <c r="Y27">
+        <v>25.5</v>
+      </c>
+      <c r="Z27">
+        <v>45.01</v>
+      </c>
+      <c r="AA27">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="AB27">
+        <v>82.5</v>
+      </c>
+      <c r="AC27">
+        <v>19.8</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="0"/>
-        <v>42.286000000000016</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>41.318620689655184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>73.75</v>
       </c>
@@ -48966,11 +53376,53 @@
         <v>5.13</v>
       </c>
       <c r="P28">
+        <v>44.27</v>
+      </c>
+      <c r="Q28">
+        <v>59.77</v>
+      </c>
+      <c r="R28">
+        <v>48.32</v>
+      </c>
+      <c r="S28">
+        <v>22.06</v>
+      </c>
+      <c r="T28">
+        <v>19.3</v>
+      </c>
+      <c r="U28">
+        <v>36.31</v>
+      </c>
+      <c r="V28">
+        <v>43.2</v>
+      </c>
+      <c r="W28">
+        <v>15.29</v>
+      </c>
+      <c r="X28">
+        <v>31.52</v>
+      </c>
+      <c r="Y28">
+        <v>102.55</v>
+      </c>
+      <c r="Z28">
+        <v>54.03</v>
+      </c>
+      <c r="AA28">
+        <v>34.76</v>
+      </c>
+      <c r="AB28">
+        <v>13.49</v>
+      </c>
+      <c r="AC28">
+        <v>56.13</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="0"/>
-        <v>51.619333333333344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>46.734137931034489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>48.59</v>
       </c>
@@ -49017,11 +53469,53 @@
         <v>11.69</v>
       </c>
       <c r="P29">
+        <v>44.54</v>
+      </c>
+      <c r="Q29">
+        <v>60.12</v>
+      </c>
+      <c r="R29">
+        <v>56.87</v>
+      </c>
+      <c r="S29">
+        <v>29.55</v>
+      </c>
+      <c r="T29">
+        <v>42.24</v>
+      </c>
+      <c r="U29">
+        <v>27.8</v>
+      </c>
+      <c r="V29">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="W29">
+        <v>80.34</v>
+      </c>
+      <c r="X29">
+        <v>18.84</v>
+      </c>
+      <c r="Y29">
+        <v>90.88</v>
+      </c>
+      <c r="Z29">
+        <v>11.95</v>
+      </c>
+      <c r="AA29">
+        <v>52.15</v>
+      </c>
+      <c r="AB29">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AC29">
+        <v>67.14</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="0"/>
-        <v>34.655999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>43.007241379310344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>77.89</v>
       </c>
@@ -49068,11 +53562,53 @@
         <v>12.42</v>
       </c>
       <c r="P30">
+        <v>50.92</v>
+      </c>
+      <c r="Q30">
+        <v>84.73</v>
+      </c>
+      <c r="R30">
+        <v>46</v>
+      </c>
+      <c r="S30">
+        <v>46.1</v>
+      </c>
+      <c r="T30">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="U30">
+        <v>14.34</v>
+      </c>
+      <c r="V30">
+        <v>59.31</v>
+      </c>
+      <c r="W30">
+        <v>45.13</v>
+      </c>
+      <c r="X30">
+        <v>27.58</v>
+      </c>
+      <c r="Y30">
+        <v>99.72</v>
+      </c>
+      <c r="Z30">
+        <v>23.41</v>
+      </c>
+      <c r="AA30">
+        <v>113.82</v>
+      </c>
+      <c r="AB30">
+        <v>42.69</v>
+      </c>
+      <c r="AC30">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="0"/>
-        <v>33.718666666666664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42.634137931034488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>83.94</v>
       </c>
@@ -49119,11 +53655,53 @@
         <v>5.82</v>
       </c>
       <c r="P31">
+        <v>58.05</v>
+      </c>
+      <c r="Q31">
+        <v>69.91</v>
+      </c>
+      <c r="R31">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="S31">
+        <v>31.55</v>
+      </c>
+      <c r="T31">
+        <v>19.45</v>
+      </c>
+      <c r="U31">
+        <v>13.7</v>
+      </c>
+      <c r="V31">
+        <v>46.19</v>
+      </c>
+      <c r="W31">
+        <v>27.4</v>
+      </c>
+      <c r="X31">
+        <v>3.63</v>
+      </c>
+      <c r="Y31">
+        <v>125.48</v>
+      </c>
+      <c r="Z31">
+        <v>33.04</v>
+      </c>
+      <c r="AA31">
+        <v>108.3</v>
+      </c>
+      <c r="AB31">
+        <v>7.49</v>
+      </c>
+      <c r="AC31">
+        <v>55.47</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="0"/>
-        <v>36.252000000000017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>40.605517241379317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>69.430000000000007</v>
       </c>
@@ -49170,11 +53748,53 @@
         <v>20.350000000000001</v>
       </c>
       <c r="P32">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="Q32">
+        <v>58.64</v>
+      </c>
+      <c r="R32">
+        <v>54.27</v>
+      </c>
+      <c r="S32">
+        <v>18.78</v>
+      </c>
+      <c r="T32">
+        <v>5.83</v>
+      </c>
+      <c r="U32">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="V32">
+        <v>33.44</v>
+      </c>
+      <c r="W32">
+        <v>7.25</v>
+      </c>
+      <c r="X32">
+        <v>24.08</v>
+      </c>
+      <c r="Y32">
+        <v>124.84</v>
+      </c>
+      <c r="Z32">
+        <v>41.95</v>
+      </c>
+      <c r="AA32">
+        <v>41.52</v>
+      </c>
+      <c r="AB32">
+        <v>38.92</v>
+      </c>
+      <c r="AC32">
+        <v>61.57</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="0"/>
-        <v>43.376666666666658</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>43.068965517241381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>118.25</v>
       </c>
@@ -49221,11 +53841,53 @@
         <v>18.78</v>
       </c>
       <c r="P33">
+        <v>45.84</v>
+      </c>
+      <c r="Q33">
+        <v>129.07</v>
+      </c>
+      <c r="R33">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="S33">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="T33">
+        <v>6.53</v>
+      </c>
+      <c r="U33">
+        <v>21.05</v>
+      </c>
+      <c r="V33">
+        <v>28.38</v>
+      </c>
+      <c r="W33">
+        <v>25.45</v>
+      </c>
+      <c r="X33">
+        <v>37.25</v>
+      </c>
+      <c r="Y33">
+        <v>9.9</v>
+      </c>
+      <c r="Z33">
+        <v>15.22</v>
+      </c>
+      <c r="AA33">
+        <v>25.69</v>
+      </c>
+      <c r="AB33">
+        <v>28.23</v>
+      </c>
+      <c r="AC33">
+        <v>91.76</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="0"/>
-        <v>48.498666666666658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42.833103448275857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>69.430000000000007</v>
       </c>
@@ -49272,11 +53934,53 @@
         <v>20.350000000000001</v>
       </c>
       <c r="P34">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="Q34">
+        <v>58.64</v>
+      </c>
+      <c r="R34">
+        <v>54.27</v>
+      </c>
+      <c r="S34">
+        <v>18.78</v>
+      </c>
+      <c r="T34">
+        <v>5.83</v>
+      </c>
+      <c r="U34">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="V34">
+        <v>33.44</v>
+      </c>
+      <c r="W34">
+        <v>7.25</v>
+      </c>
+      <c r="X34">
+        <v>24.08</v>
+      </c>
+      <c r="Y34">
+        <v>124.84</v>
+      </c>
+      <c r="Z34">
+        <v>41.95</v>
+      </c>
+      <c r="AA34">
+        <v>41.52</v>
+      </c>
+      <c r="AB34">
+        <v>38.92</v>
+      </c>
+      <c r="AC34">
+        <v>61.57</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="0"/>
-        <v>43.376666666666658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <v>43.068965517241381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>83.94</v>
       </c>
@@ -49323,11 +54027,53 @@
         <v>5.82</v>
       </c>
       <c r="P35">
+        <v>58.05</v>
+      </c>
+      <c r="Q35">
+        <v>69.91</v>
+      </c>
+      <c r="R35">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="S35">
+        <v>31.55</v>
+      </c>
+      <c r="T35">
+        <v>19.45</v>
+      </c>
+      <c r="U35">
+        <v>13.7</v>
+      </c>
+      <c r="V35">
+        <v>46.19</v>
+      </c>
+      <c r="W35">
+        <v>27.4</v>
+      </c>
+      <c r="X35">
+        <v>3.63</v>
+      </c>
+      <c r="Y35">
+        <v>125.48</v>
+      </c>
+      <c r="Z35">
+        <v>33.04</v>
+      </c>
+      <c r="AA35">
+        <v>108.3</v>
+      </c>
+      <c r="AB35">
+        <v>7.49</v>
+      </c>
+      <c r="AC35">
+        <v>55.47</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="0"/>
-        <v>36.252000000000017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>40.605517241379317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>77.89</v>
       </c>
@@ -49374,11 +54120,53 @@
         <v>12.42</v>
       </c>
       <c r="P36">
+        <v>50.92</v>
+      </c>
+      <c r="Q36">
+        <v>84.73</v>
+      </c>
+      <c r="R36">
+        <v>46</v>
+      </c>
+      <c r="S36">
+        <v>46.1</v>
+      </c>
+      <c r="T36">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="U36">
+        <v>14.34</v>
+      </c>
+      <c r="V36">
+        <v>59.31</v>
+      </c>
+      <c r="W36">
+        <v>45.13</v>
+      </c>
+      <c r="X36">
+        <v>27.58</v>
+      </c>
+      <c r="Y36">
+        <v>99.72</v>
+      </c>
+      <c r="Z36">
+        <v>23.41</v>
+      </c>
+      <c r="AA36">
+        <v>113.82</v>
+      </c>
+      <c r="AB36">
+        <v>42.69</v>
+      </c>
+      <c r="AC36">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="0"/>
-        <v>33.718666666666664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42.634137931034488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>48.59</v>
       </c>
@@ -49425,11 +54213,53 @@
         <v>11.69</v>
       </c>
       <c r="P37">
+        <v>44.54</v>
+      </c>
+      <c r="Q37">
+        <v>60.12</v>
+      </c>
+      <c r="R37">
+        <v>56.87</v>
+      </c>
+      <c r="S37">
+        <v>29.55</v>
+      </c>
+      <c r="T37">
+        <v>42.24</v>
+      </c>
+      <c r="U37">
+        <v>27.8</v>
+      </c>
+      <c r="V37">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="W37">
+        <v>80.34</v>
+      </c>
+      <c r="X37">
+        <v>18.84</v>
+      </c>
+      <c r="Y37">
+        <v>90.88</v>
+      </c>
+      <c r="Z37">
+        <v>11.95</v>
+      </c>
+      <c r="AA37">
+        <v>52.15</v>
+      </c>
+      <c r="AB37">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AC37">
+        <v>67.14</v>
+      </c>
+      <c r="AD37">
         <f t="shared" si="0"/>
-        <v>34.655999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>43.007241379310344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>73.75</v>
       </c>
@@ -49476,11 +54306,53 @@
         <v>5.13</v>
       </c>
       <c r="P38">
+        <v>44.27</v>
+      </c>
+      <c r="Q38">
+        <v>59.77</v>
+      </c>
+      <c r="R38">
+        <v>48.32</v>
+      </c>
+      <c r="S38">
+        <v>22.06</v>
+      </c>
+      <c r="T38">
+        <v>19.3</v>
+      </c>
+      <c r="U38">
+        <v>36.31</v>
+      </c>
+      <c r="V38">
+        <v>43.2</v>
+      </c>
+      <c r="W38">
+        <v>15.29</v>
+      </c>
+      <c r="X38">
+        <v>31.52</v>
+      </c>
+      <c r="Y38">
+        <v>102.55</v>
+      </c>
+      <c r="Z38">
+        <v>54.03</v>
+      </c>
+      <c r="AA38">
+        <v>34.76</v>
+      </c>
+      <c r="AB38">
+        <v>13.49</v>
+      </c>
+      <c r="AC38">
+        <v>56.13</v>
+      </c>
+      <c r="AD38">
         <f t="shared" si="0"/>
-        <v>51.619333333333344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>46.734137931034489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>50.59</v>
       </c>
@@ -49527,11 +54399,53 @@
         <v>36.69</v>
       </c>
       <c r="P39">
+        <v>43.01</v>
+      </c>
+      <c r="Q39">
+        <v>57.6</v>
+      </c>
+      <c r="R39">
+        <v>68.56</v>
+      </c>
+      <c r="S39">
+        <v>40.72</v>
+      </c>
+      <c r="T39">
+        <v>10.08</v>
+      </c>
+      <c r="U39">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="V39">
+        <v>44.29</v>
+      </c>
+      <c r="W39">
+        <v>10.23</v>
+      </c>
+      <c r="X39">
+        <v>12.38</v>
+      </c>
+      <c r="Y39">
+        <v>25.5</v>
+      </c>
+      <c r="Z39">
+        <v>45.01</v>
+      </c>
+      <c r="AA39">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="AB39">
+        <v>82.5</v>
+      </c>
+      <c r="AC39">
+        <v>19.8</v>
+      </c>
+      <c r="AD39">
         <f t="shared" si="0"/>
-        <v>42.286000000000016</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>41.318620689655184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>54.07</v>
       </c>
@@ -49578,11 +54492,53 @@
         <v>33.35</v>
       </c>
       <c r="P40">
+        <v>42.22</v>
+      </c>
+      <c r="Q40">
+        <v>106.29</v>
+      </c>
+      <c r="R40">
+        <v>20.45</v>
+      </c>
+      <c r="S40">
+        <v>56.86</v>
+      </c>
+      <c r="T40">
+        <v>19.04</v>
+      </c>
+      <c r="U40">
+        <v>31.74</v>
+      </c>
+      <c r="V40">
+        <v>85.95</v>
+      </c>
+      <c r="W40">
+        <v>18.54</v>
+      </c>
+      <c r="X40">
+        <v>7.72</v>
+      </c>
+      <c r="Y40">
+        <v>90.21</v>
+      </c>
+      <c r="Z40">
+        <v>22.63</v>
+      </c>
+      <c r="AA40">
+        <v>128.51</v>
+      </c>
+      <c r="AB40">
+        <v>53.23</v>
+      </c>
+      <c r="AC40">
+        <v>21.86</v>
+      </c>
+      <c r="AD40">
         <f t="shared" si="0"/>
-        <v>41.792666666666669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45.93586206896552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>63.61</v>
       </c>
@@ -49629,11 +54585,53 @@
         <v>17</v>
       </c>
       <c r="P41">
+        <v>45.52</v>
+      </c>
+      <c r="Q41">
+        <v>52.97</v>
+      </c>
+      <c r="R41">
+        <v>36.75</v>
+      </c>
+      <c r="S41">
+        <v>37.32</v>
+      </c>
+      <c r="T41">
+        <v>31.42</v>
+      </c>
+      <c r="U41">
+        <v>25.12</v>
+      </c>
+      <c r="V41">
+        <v>63.54</v>
+      </c>
+      <c r="W41">
+        <v>44.34</v>
+      </c>
+      <c r="X41">
+        <v>29.54</v>
+      </c>
+      <c r="Y41">
+        <v>133.38999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>29.71</v>
+      </c>
+      <c r="AA41">
+        <v>104.53</v>
+      </c>
+      <c r="AB41">
+        <v>36.39</v>
+      </c>
+      <c r="AC41">
+        <v>60.62</v>
+      </c>
+      <c r="AD41">
         <f t="shared" si="0"/>
-        <v>47.510000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>49.786551724137929</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>62.35</v>
       </c>
@@ -49680,11 +54678,53 @@
         <v>18.62</v>
       </c>
       <c r="P42">
+        <v>40.25</v>
+      </c>
+      <c r="Q42">
+        <v>88.54</v>
+      </c>
+      <c r="R42">
+        <v>10.71</v>
+      </c>
+      <c r="S42">
+        <v>34.14</v>
+      </c>
+      <c r="T42">
+        <v>19.38</v>
+      </c>
+      <c r="U42">
+        <v>17.93</v>
+      </c>
+      <c r="V42">
+        <v>109.49</v>
+      </c>
+      <c r="W42">
+        <v>90.39</v>
+      </c>
+      <c r="X42">
+        <v>28.97</v>
+      </c>
+      <c r="Y42">
+        <v>47.87</v>
+      </c>
+      <c r="Z42">
+        <v>13.44</v>
+      </c>
+      <c r="AA42">
+        <v>216.97</v>
+      </c>
+      <c r="AB42">
+        <v>42.84</v>
+      </c>
+      <c r="AC42">
+        <v>101.72</v>
+      </c>
+      <c r="AD42">
         <f t="shared" si="0"/>
-        <v>46.501999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>53.798965517241371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>144.62</v>
       </c>
@@ -49731,11 +54771,53 @@
         <v>30.15</v>
       </c>
       <c r="P43">
+        <v>52.8</v>
+      </c>
+      <c r="Q43">
+        <v>151.83000000000001</v>
+      </c>
+      <c r="R43">
+        <v>12.11</v>
+      </c>
+      <c r="S43">
+        <v>10.85</v>
+      </c>
+      <c r="T43">
+        <v>21.99</v>
+      </c>
+      <c r="U43">
+        <v>20.72</v>
+      </c>
+      <c r="V43">
+        <v>108.13</v>
+      </c>
+      <c r="W43">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="X43">
+        <v>40.75</v>
+      </c>
+      <c r="Y43">
+        <v>32</v>
+      </c>
+      <c r="Z43">
+        <v>52.77</v>
+      </c>
+      <c r="AA43">
+        <v>225.33</v>
+      </c>
+      <c r="AB43">
+        <v>30.6</v>
+      </c>
+      <c r="AC43">
+        <v>87.25</v>
+      </c>
+      <c r="AD43">
         <f t="shared" si="0"/>
-        <v>49.054666666666662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57.331034482758618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>82.65</v>
       </c>
@@ -49782,11 +54864,53 @@
         <v>15.09</v>
       </c>
       <c r="P44">
+        <v>100.86</v>
+      </c>
+      <c r="Q44">
+        <v>106.24</v>
+      </c>
+      <c r="R44">
+        <v>46.78</v>
+      </c>
+      <c r="S44">
+        <v>41.05</v>
+      </c>
+      <c r="T44">
+        <v>2.15</v>
+      </c>
+      <c r="U44">
+        <v>51.18</v>
+      </c>
+      <c r="V44">
+        <v>53.3</v>
+      </c>
+      <c r="W44">
+        <v>99.53</v>
+      </c>
+      <c r="X44">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="Y44">
+        <v>114.54</v>
+      </c>
+      <c r="Z44">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="AA44">
+        <v>57.07</v>
+      </c>
+      <c r="AB44">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="AC44">
+        <v>82.48</v>
+      </c>
+      <c r="AD44">
         <f t="shared" si="0"/>
-        <v>45.457333333333331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>54.843103448275855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>45.4</v>
       </c>
@@ -49833,11 +54957,53 @@
         <v>25.34</v>
       </c>
       <c r="P45">
+        <v>98.26</v>
+      </c>
+      <c r="Q45">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="R45">
+        <v>21.6</v>
+      </c>
+      <c r="S45">
+        <v>18.72</v>
+      </c>
+      <c r="T45">
+        <v>22.11</v>
+      </c>
+      <c r="U45">
+        <v>46.25</v>
+      </c>
+      <c r="V45">
+        <v>23.88</v>
+      </c>
+      <c r="W45">
+        <v>128.09</v>
+      </c>
+      <c r="X45">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="Y45">
+        <v>132.37</v>
+      </c>
+      <c r="Z45">
+        <v>57.9</v>
+      </c>
+      <c r="AA45">
+        <v>109.58</v>
+      </c>
+      <c r="AB45">
+        <v>28.19</v>
+      </c>
+      <c r="AC45">
+        <v>45.81</v>
+      </c>
+      <c r="AD45">
         <f t="shared" si="0"/>
-        <v>45.961999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>56.960000000000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>178.19</v>
       </c>
@@ -49884,11 +55050,53 @@
         <v>49.15</v>
       </c>
       <c r="P46">
+        <v>62.7</v>
+      </c>
+      <c r="Q46">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="R46">
+        <v>45.56</v>
+      </c>
+      <c r="S46">
+        <v>43.45</v>
+      </c>
+      <c r="T46">
+        <v>31.59</v>
+      </c>
+      <c r="U46">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="V46">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="W46">
+        <v>58.7</v>
+      </c>
+      <c r="X46">
+        <v>72.14</v>
+      </c>
+      <c r="Y46">
+        <v>158.91</v>
+      </c>
+      <c r="Z46">
+        <v>23.14</v>
+      </c>
+      <c r="AA46">
+        <v>64.5</v>
+      </c>
+      <c r="AB46">
+        <v>35.1</v>
+      </c>
+      <c r="AC46">
+        <v>123.46</v>
+      </c>
+      <c r="AD46">
         <f t="shared" si="0"/>
-        <v>67.441333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>66.43241379310345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>90.75</v>
       </c>
@@ -49935,11 +55143,53 @@
         <v>32.340000000000003</v>
       </c>
       <c r="P47">
+        <v>61.35</v>
+      </c>
+      <c r="Q47">
+        <v>151.47999999999999</v>
+      </c>
+      <c r="R47">
+        <v>86.31</v>
+      </c>
+      <c r="S47">
+        <v>48.65</v>
+      </c>
+      <c r="T47">
+        <v>55.71</v>
+      </c>
+      <c r="U47">
+        <v>52.4</v>
+      </c>
+      <c r="V47">
+        <v>45.32</v>
+      </c>
+      <c r="W47">
+        <v>78.56</v>
+      </c>
+      <c r="X47">
+        <v>10.71</v>
+      </c>
+      <c r="Y47">
+        <v>92.42</v>
+      </c>
+      <c r="Z47">
+        <v>10.51</v>
+      </c>
+      <c r="AA47">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="AB47">
+        <v>41.99</v>
+      </c>
+      <c r="AC47">
+        <v>97.13</v>
+      </c>
+      <c r="AD47">
         <f t="shared" si="0"/>
-        <v>55.219333333333331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61.693103448275856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>52.59</v>
       </c>
@@ -49986,11 +55236,53 @@
         <v>12.67</v>
       </c>
       <c r="P48">
+        <v>57.86</v>
+      </c>
+      <c r="Q48">
+        <v>71.61</v>
+      </c>
+      <c r="R48">
+        <v>55.78</v>
+      </c>
+      <c r="S48">
+        <v>52.45</v>
+      </c>
+      <c r="T48">
+        <v>73.42</v>
+      </c>
+      <c r="U48">
+        <v>104.64</v>
+      </c>
+      <c r="V48">
+        <v>98.07</v>
+      </c>
+      <c r="W48">
+        <v>91.69</v>
+      </c>
+      <c r="X48">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Y48">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>24.15</v>
+      </c>
+      <c r="AA48">
+        <v>87.95</v>
+      </c>
+      <c r="AB48">
+        <v>23.58</v>
+      </c>
+      <c r="AC48">
+        <v>136.82</v>
+      </c>
+      <c r="AD48">
         <f t="shared" si="0"/>
-        <v>45.192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>58.60896551724138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>40.22</v>
       </c>
@@ -50037,11 +55329,53 @@
         <v>18.54</v>
       </c>
       <c r="P49">
+        <v>38.81</v>
+      </c>
+      <c r="Q49">
+        <v>171.42</v>
+      </c>
+      <c r="R49">
+        <v>61.06</v>
+      </c>
+      <c r="S49">
+        <v>57.86</v>
+      </c>
+      <c r="T49">
+        <v>74.61</v>
+      </c>
+      <c r="U49">
+        <v>118.61</v>
+      </c>
+      <c r="V49">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="W49">
+        <v>85.72</v>
+      </c>
+      <c r="X49">
+        <v>25.95</v>
+      </c>
+      <c r="Y49">
+        <v>142.69</v>
+      </c>
+      <c r="Z49">
+        <v>27.11</v>
+      </c>
+      <c r="AA49">
+        <v>90.17</v>
+      </c>
+      <c r="AB49">
+        <v>13.99</v>
+      </c>
+      <c r="AC49">
+        <v>60.39</v>
+      </c>
+      <c r="AD49">
         <f t="shared" si="0"/>
-        <v>44.481999999999992</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>59.148275862068971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -50088,11 +55422,53 @@
         <v>36.56</v>
       </c>
       <c r="P50">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="Q50">
+        <v>176.18</v>
+      </c>
+      <c r="R50">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="S50">
+        <v>31.24</v>
+      </c>
+      <c r="T50">
+        <v>72.040000000000006</v>
+      </c>
+      <c r="U50">
+        <v>112.7</v>
+      </c>
+      <c r="V50">
+        <v>66.56</v>
+      </c>
+      <c r="W50">
+        <v>36.81</v>
+      </c>
+      <c r="X50">
+        <v>10.73</v>
+      </c>
+      <c r="Y50">
+        <v>148.43</v>
+      </c>
+      <c r="Z50">
+        <v>30.4</v>
+      </c>
+      <c r="AA50">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>31.35</v>
+      </c>
+      <c r="AC50">
+        <v>68.98</v>
+      </c>
+      <c r="AD50">
         <f t="shared" si="0"/>
-        <v>50.829333333333324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61.037241379310338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>114.89</v>
       </c>
@@ -50139,11 +55515,53 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="P51">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="Q51">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="R51">
+        <v>83.08</v>
+      </c>
+      <c r="S51">
+        <v>7.04</v>
+      </c>
+      <c r="T51">
+        <v>46.9</v>
+      </c>
+      <c r="U51">
+        <v>129.05000000000001</v>
+      </c>
+      <c r="V51">
+        <v>66.39</v>
+      </c>
+      <c r="W51">
+        <v>156.56</v>
+      </c>
+      <c r="X51">
+        <v>76.19</v>
+      </c>
+      <c r="Y51">
+        <v>99.33</v>
+      </c>
+      <c r="Z51">
+        <v>141.12</v>
+      </c>
+      <c r="AA51">
+        <v>82.48</v>
+      </c>
+      <c r="AB51">
+        <v>189.61</v>
+      </c>
+      <c r="AC51">
+        <v>85.21</v>
+      </c>
+      <c r="AD51">
         <f t="shared" si="0"/>
-        <v>60.927333333333323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>75.502068965517239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>47.08</v>
       </c>
@@ -50190,11 +55608,53 @@
         <v>60.9</v>
       </c>
       <c r="P52">
+        <v>33.53</v>
+      </c>
+      <c r="Q52">
+        <v>122.38</v>
+      </c>
+      <c r="R52">
+        <v>59.24</v>
+      </c>
+      <c r="S52">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="T52">
+        <v>47.02</v>
+      </c>
+      <c r="U52">
+        <v>109.27</v>
+      </c>
+      <c r="V52">
+        <v>116.37</v>
+      </c>
+      <c r="W52">
+        <v>128.43</v>
+      </c>
+      <c r="X52">
+        <v>126.6</v>
+      </c>
+      <c r="Y52">
+        <v>180.24</v>
+      </c>
+      <c r="Z52">
+        <v>178.95</v>
+      </c>
+      <c r="AA52">
+        <v>105.99</v>
+      </c>
+      <c r="AB52">
+        <v>394.2</v>
+      </c>
+      <c r="AC52">
+        <v>127.81</v>
+      </c>
+      <c r="AD52">
         <f t="shared" si="0"/>
-        <v>82.694666666666677</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>103.1210344827586</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>49.56</v>
       </c>
@@ -50241,11 +55701,53 @@
         <v>55.95</v>
       </c>
       <c r="P53">
+        <v>18.38</v>
+      </c>
+      <c r="Q53">
+        <v>214.88</v>
+      </c>
+      <c r="R53">
+        <v>152.63</v>
+      </c>
+      <c r="S53">
+        <v>72.709999999999994</v>
+      </c>
+      <c r="T53">
+        <v>72.62</v>
+      </c>
+      <c r="U53">
+        <v>48.12</v>
+      </c>
+      <c r="V53">
+        <v>145.84</v>
+      </c>
+      <c r="W53">
+        <v>200.24</v>
+      </c>
+      <c r="X53">
+        <v>142.83000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>183.45</v>
+      </c>
+      <c r="Z53">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="AA53">
+        <v>66.45</v>
+      </c>
+      <c r="AB53">
+        <v>224.13</v>
+      </c>
+      <c r="AC53">
+        <v>194.25</v>
+      </c>
+      <c r="AD53">
         <f t="shared" si="0"/>
-        <v>78.576666666666668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>102.83344827586205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>121.45</v>
       </c>
@@ -50292,11 +55794,53 @@
         <v>21.81</v>
       </c>
       <c r="P54">
+        <v>148.76</v>
+      </c>
+      <c r="Q54">
+        <v>92.16</v>
+      </c>
+      <c r="R54">
+        <v>67.73</v>
+      </c>
+      <c r="S54">
+        <v>90.8</v>
+      </c>
+      <c r="T54">
+        <v>75.67</v>
+      </c>
+      <c r="U54">
+        <v>47.86</v>
+      </c>
+      <c r="V54">
+        <v>113.77</v>
+      </c>
+      <c r="W54">
+        <v>126.4</v>
+      </c>
+      <c r="X54">
+        <v>98.82</v>
+      </c>
+      <c r="Y54">
+        <v>86.48</v>
+      </c>
+      <c r="Z54">
+        <v>83.46</v>
+      </c>
+      <c r="AA54">
+        <v>104.56</v>
+      </c>
+      <c r="AB54">
+        <v>74.28</v>
+      </c>
+      <c r="AC54">
+        <v>203.56</v>
+      </c>
+      <c r="AD54">
         <f t="shared" si="0"/>
-        <v>76.357999999999976</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>88.264827586206891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>226.06</v>
       </c>
@@ -50343,11 +55887,53 @@
         <v>41.55</v>
       </c>
       <c r="P55">
+        <v>145.54</v>
+      </c>
+      <c r="Q55">
+        <v>283.73</v>
+      </c>
+      <c r="R55">
+        <v>196.06</v>
+      </c>
+      <c r="S55">
+        <v>86.58</v>
+      </c>
+      <c r="T55">
+        <v>53.47</v>
+      </c>
+      <c r="U55">
+        <v>113.66</v>
+      </c>
+      <c r="V55">
+        <v>105.66</v>
+      </c>
+      <c r="W55">
+        <v>58.84</v>
+      </c>
+      <c r="X55">
+        <v>28.6</v>
+      </c>
+      <c r="Y55">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="Z55">
+        <v>133.47999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>119.32</v>
+      </c>
+      <c r="AB55">
+        <v>194.69</v>
+      </c>
+      <c r="AC55">
+        <v>236.6</v>
+      </c>
+      <c r="AD55">
         <f t="shared" si="0"/>
-        <v>87.932000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>108.79137931034481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>225.49</v>
       </c>
@@ -50394,11 +55980,53 @@
         <v>48.08</v>
       </c>
       <c r="P56">
+        <v>76.53</v>
+      </c>
+      <c r="Q56">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="R56">
+        <v>206.97</v>
+      </c>
+      <c r="S56">
+        <v>64.58</v>
+      </c>
+      <c r="T56">
+        <v>63.45</v>
+      </c>
+      <c r="U56">
+        <v>157.66</v>
+      </c>
+      <c r="V56">
+        <v>187.69</v>
+      </c>
+      <c r="W56">
+        <v>138.24</v>
+      </c>
+      <c r="X56">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="Y56">
+        <v>174.02</v>
+      </c>
+      <c r="Z56">
+        <v>125.47</v>
+      </c>
+      <c r="AA56">
+        <v>230.33</v>
+      </c>
+      <c r="AB56">
+        <v>112.18</v>
+      </c>
+      <c r="AC56">
+        <v>191.27</v>
+      </c>
+      <c r="AD56">
         <f t="shared" si="0"/>
-        <v>107.46866666666665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <v>127.08241379310341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>47.78</v>
       </c>
@@ -50445,11 +56073,53 @@
         <v>48.67</v>
       </c>
       <c r="P57">
+        <v>46.99</v>
+      </c>
+      <c r="Q57">
+        <v>94.52</v>
+      </c>
+      <c r="R57">
+        <v>86.49</v>
+      </c>
+      <c r="S57">
+        <v>39.44</v>
+      </c>
+      <c r="T57">
+        <v>68.03</v>
+      </c>
+      <c r="U57">
+        <v>198.35</v>
+      </c>
+      <c r="V57">
+        <v>128.54</v>
+      </c>
+      <c r="W57">
+        <v>77.91</v>
+      </c>
+      <c r="X57">
+        <v>105.35</v>
+      </c>
+      <c r="Y57">
+        <v>263.08999999999997</v>
+      </c>
+      <c r="Z57">
+        <v>130.54</v>
+      </c>
+      <c r="AA57">
+        <v>176.87</v>
+      </c>
+      <c r="AB57">
+        <v>109.34</v>
+      </c>
+      <c r="AC57">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="AD57">
         <f t="shared" si="0"/>
-        <v>90.550666666666672</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>102.11068965517239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>242.11</v>
       </c>
@@ -50496,11 +56166,53 @@
         <v>43.43</v>
       </c>
       <c r="P58">
+        <v>68.25</v>
+      </c>
+      <c r="Q58">
+        <v>301.12</v>
+      </c>
+      <c r="R58">
+        <v>92.42</v>
+      </c>
+      <c r="S58">
+        <v>181.5</v>
+      </c>
+      <c r="T58">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="U58">
+        <v>218.21</v>
+      </c>
+      <c r="V58">
+        <v>122.49</v>
+      </c>
+      <c r="W58">
+        <v>28.84</v>
+      </c>
+      <c r="X58">
+        <v>56.35</v>
+      </c>
+      <c r="Y58">
+        <v>338.63</v>
+      </c>
+      <c r="Z58">
+        <v>130.06</v>
+      </c>
+      <c r="AA58">
+        <v>16.12</v>
+      </c>
+      <c r="AB58">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AC58">
+        <v>269.5</v>
+      </c>
+      <c r="AD58">
         <f t="shared" si="0"/>
-        <v>109.44400000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <v>126.56724137931033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>86.97</v>
       </c>
@@ -50547,11 +56259,53 @@
         <v>60.13</v>
       </c>
       <c r="P59">
+        <v>65.42</v>
+      </c>
+      <c r="Q59">
+        <v>41.73</v>
+      </c>
+      <c r="R59">
+        <v>81.849999999999994</v>
+      </c>
+      <c r="S59">
+        <v>195.78</v>
+      </c>
+      <c r="T59">
+        <v>175.99</v>
+      </c>
+      <c r="U59">
+        <v>196.72</v>
+      </c>
+      <c r="V59">
+        <v>235.93</v>
+      </c>
+      <c r="W59">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="X59">
+        <v>101.21</v>
+      </c>
+      <c r="Y59">
+        <v>131.91999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>172.87</v>
+      </c>
+      <c r="AA59">
+        <v>233.32</v>
+      </c>
+      <c r="AB59">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="AC59">
+        <v>164.71</v>
+      </c>
+      <c r="AD59">
         <f t="shared" si="0"/>
-        <v>98.493333333333339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>120.09655172413794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>156.44999999999999</v>
       </c>
@@ -50598,11 +56352,53 @@
         <v>83.77</v>
       </c>
       <c r="P60">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="Q60">
+        <v>569.09</v>
+      </c>
+      <c r="R60">
+        <v>50.94</v>
+      </c>
+      <c r="S60">
+        <v>93.73</v>
+      </c>
+      <c r="T60">
+        <v>89.78</v>
+      </c>
+      <c r="U60">
+        <v>226.49</v>
+      </c>
+      <c r="V60">
+        <v>185.86</v>
+      </c>
+      <c r="W60">
+        <v>320.89</v>
+      </c>
+      <c r="X60">
+        <v>82.97</v>
+      </c>
+      <c r="Y60">
+        <v>377.81</v>
+      </c>
+      <c r="Z60">
+        <v>146.94999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>509.39</v>
+      </c>
+      <c r="AB60">
+        <v>127.07</v>
+      </c>
+      <c r="AC60">
+        <v>156</v>
+      </c>
+      <c r="AD60">
         <f t="shared" si="0"/>
-        <v>104.26466666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+        <v>156.50344827586204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>184.68</v>
       </c>
@@ -50649,11 +56445,53 @@
         <v>148.65</v>
       </c>
       <c r="P61">
+        <v>26.54</v>
+      </c>
+      <c r="Q61">
+        <v>1153.19</v>
+      </c>
+      <c r="R61">
+        <v>83.18</v>
+      </c>
+      <c r="S61">
+        <v>505.1</v>
+      </c>
+      <c r="T61">
+        <v>258</v>
+      </c>
+      <c r="U61">
+        <v>233.14</v>
+      </c>
+      <c r="V61">
+        <v>253.15</v>
+      </c>
+      <c r="W61">
+        <v>499.22</v>
+      </c>
+      <c r="X61">
+        <v>242.83</v>
+      </c>
+      <c r="Y61">
+        <v>842.19</v>
+      </c>
+      <c r="Z61">
+        <v>64.12</v>
+      </c>
+      <c r="AA61">
+        <v>417.61</v>
+      </c>
+      <c r="AB61">
+        <v>111.34</v>
+      </c>
+      <c r="AC61">
+        <v>256.45999999999998</v>
+      </c>
+      <c r="AD61">
         <f t="shared" si="0"/>
-        <v>149.21733333333336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <v>247.73551724137934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>662</v>
       </c>
@@ -50700,11 +56538,53 @@
         <v>174.8</v>
       </c>
       <c r="P62">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q62">
+        <v>1195.6199999999999</v>
+      </c>
+      <c r="R62">
+        <v>116.04</v>
+      </c>
+      <c r="S62">
+        <v>1775.47</v>
+      </c>
+      <c r="T62">
+        <v>1088.2</v>
+      </c>
+      <c r="U62">
+        <v>213.91</v>
+      </c>
+      <c r="V62">
+        <v>1532.29</v>
+      </c>
+      <c r="W62">
+        <v>2068</v>
+      </c>
+      <c r="X62">
+        <v>155.13999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>2100.4899999999998</v>
+      </c>
+      <c r="Z62">
+        <v>226.52</v>
+      </c>
+      <c r="AA62">
+        <v>1582.27</v>
+      </c>
+      <c r="AB62">
+        <v>120.86</v>
+      </c>
+      <c r="AC62">
+        <v>1474.12</v>
+      </c>
+      <c r="AD62">
         <f t="shared" si="0"/>
-        <v>370.36800000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>662.88103448275865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1177.1300000000001</v>
       </c>
@@ -50751,11 +56631,53 @@
         <v>295.57</v>
       </c>
       <c r="P63">
+        <v>24.71</v>
+      </c>
+      <c r="Q63">
+        <v>4456.7299999999996</v>
+      </c>
+      <c r="R63">
+        <v>151.56</v>
+      </c>
+      <c r="S63">
+        <v>3632.1</v>
+      </c>
+      <c r="T63">
+        <v>2492.09</v>
+      </c>
+      <c r="U63">
+        <v>489.16</v>
+      </c>
+      <c r="V63">
+        <v>4097</v>
+      </c>
+      <c r="W63">
+        <v>3637.88</v>
+      </c>
+      <c r="X63">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="Y63">
+        <v>4061.51</v>
+      </c>
+      <c r="Z63">
+        <v>297.97000000000003</v>
+      </c>
+      <c r="AA63">
+        <v>3450.4</v>
+      </c>
+      <c r="AB63">
+        <v>68.16</v>
+      </c>
+      <c r="AC63">
+        <v>2845.14</v>
+      </c>
+      <c r="AD63">
         <f t="shared" si="0"/>
-        <v>673.69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1375.044827586207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2220</v>
       </c>
@@ -50802,8 +56724,50 @@
         <v>567.09</v>
       </c>
       <c r="P64">
+        <v>1572.2</v>
+      </c>
+      <c r="Q64">
+        <v>7769.71</v>
+      </c>
+      <c r="R64">
+        <v>2225.5300000000002</v>
+      </c>
+      <c r="S64">
+        <v>5525.72</v>
+      </c>
+      <c r="T64">
+        <v>4027.04</v>
+      </c>
+      <c r="U64">
+        <v>1064.4100000000001</v>
+      </c>
+      <c r="V64">
+        <v>5139.21</v>
+      </c>
+      <c r="W64">
+        <v>3655.43</v>
+      </c>
+      <c r="X64">
+        <v>598</v>
+      </c>
+      <c r="Y64">
+        <v>5846.61</v>
+      </c>
+      <c r="Z64">
+        <v>872.96</v>
+      </c>
+      <c r="AA64">
+        <v>4992.05</v>
+      </c>
+      <c r="AB64">
+        <v>1229.8900000000001</v>
+      </c>
+      <c r="AC64">
+        <v>2724.71</v>
+      </c>
+      <c r="AD64">
         <f t="shared" si="0"/>
-        <v>1681.6040000000003</v>
+        <v>2498.8803448275867</v>
       </c>
     </row>
   </sheetData>
